--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.372</v>
+        <v>-0.133</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.837</v>
+        <v>28.309</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.54</v>
+        <v>-0.047</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.162</v>
+        <v>27.396</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.609</v>
+        <v>-0.026</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.161</v>
+        <v>27.778</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.993054031157779</v>
+        <v>28.37213809328915</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.61878151112162</v>
+        <v>28.37213812831685</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>22.32966813375005</v>
+        <v>28.3721381396145</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.1140986665113317</v>
+        <v>28.37213809163919</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>16.64499839859711</v>
+        <v>28.37213812951913</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.5070547858754</v>
+        <v>28.37213814092248</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>4.85033398296898</v>
+        <v>28.37213809666882</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>22.1140387148645</v>
+        <v>28.372138134836</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>27.15706027282449</v>
+        <v>28.37213814588913</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.01914448108895</v>
+        <v>28.37213814676297</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.07911403764812</v>
+        <v>28.37213816157256</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.62350577031926</v>
+        <v>28.37213816562692</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>7.970895909061898</v>
+        <v>28.37213811873147</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23.64715562156489</v>
+        <v>28.3721381556849</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.7937441552834</v>
+        <v>28.37213816660608</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>5.527394439347567</v>
+        <v>28.37213815680913</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.75834241836934</v>
+        <v>28.37213819767184</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.75244055478314</v>
+        <v>28.37213821097701</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-1.55280971648898</v>
+        <v>28.37213815303792</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>17.70278883550788</v>
+        <v>28.37213819591316</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>24.51600705178395</v>
+        <v>28.37213821010951</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.625798842366979</v>
+        <v>28.37213816372168</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>25.73844242800863</v>
+        <v>28.37213820772217</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>7.827984787538131</v>
+        <v>28.372138108533</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>22.05414686812744</v>
+        <v>28.37213814544059</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.75688542976142</v>
+        <v>28.37213815665482</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>4.759641010998084</v>
+        <v>28.37213810861914</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>22.01823228723282</v>
+        <v>28.37213814864676</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.88678278110669</v>
+        <v>28.37213816002655</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>9.826847039342972</v>
+        <v>28.37213811459685</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>27.77484862161429</v>
+        <v>28.37213815480055</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>32.81965420387035</v>
+        <v>28.37213816577242</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.8175910161109</v>
+        <v>28.3721381665767</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>34.99802330997034</v>
+        <v>28.37213818169239</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>38.59239291868289</v>
+        <v>28.3721381858145</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>13.06044429150376</v>
+        <v>28.37213813648526</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>29.47729450158862</v>
+        <v>28.37213817545578</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>35.6059729748503</v>
+        <v>28.37213818613252</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>10.42898574151346</v>
+        <v>28.37213817674689</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.35008609736219</v>
+        <v>28.37213821980232</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.3870686152318</v>
+        <v>28.3721382330647</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>4.29573467374102</v>
+        <v>28.37213817502658</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>24.37451689822016</v>
+        <v>28.3721382204044</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>31.25076653486353</v>
+        <v>28.37213823466445</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>10.9010881068772</v>
+        <v>28.37213818687885</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>32.79970846584808</v>
+        <v>28.37213823324973</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>8.48542383074717</v>
+        <v>28.37213811230586</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>22.76332707356029</v>
+        <v>28.37213814912399</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>27.44314758897167</v>
+        <v>28.37213816023292</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>5.707944777341577</v>
+        <v>28.37213811294651</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>23.01790396241137</v>
+        <v>28.37213815288618</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>27.86978698813529</v>
+        <v>28.37213816418339</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>10.79684643016687</v>
+        <v>28.37213811898017</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.78552605700068</v>
+        <v>28.37213815908163</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>33.80656443513141</v>
+        <v>28.37213816995006</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>29.86899911467353</v>
+        <v>28.37213817064214</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>36.02921081838286</v>
+        <v>28.37213818560175</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>39.61957533102758</v>
+        <v>28.37213818972982</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>14.04273125786632</v>
+        <v>28.37213814045032</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>30.54259567977387</v>
+        <v>28.37213817941359</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>36.63421405762513</v>
+        <v>28.37213818992921</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>11.30972981045012</v>
+        <v>28.37213818041438</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>29.27316118327648</v>
+        <v>28.37213822336453</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>35.29211493220595</v>
+        <v>28.37213823651465</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>5.513948643297489</v>
+        <v>28.37213817930161</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>25.6401780583919</v>
+        <v>28.37213822458049</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>32.50270632927048</v>
+        <v>28.37213823876435</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>12.15366755927766</v>
+        <v>28.37213819117792</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>34.08384464391695</v>
+        <v>28.37213823743431</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>6.527342797878745</v>
+        <v>28.372138101472</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>20.71832959333072</v>
+        <v>28.37213813724238</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>25.4424241242454</v>
+        <v>28.37213814860538</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>3.059720757984312</v>
+        <v>28.37213810141645</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>20.28540402271178</v>
+        <v>28.37213814014987</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>25.16665161661921</v>
+        <v>28.37213815169918</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>8.142167560858113</v>
+        <v>28.37213810676536</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>26.07604302623579</v>
+        <v>28.37213814573821</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>31.1438674670523</v>
+        <v>28.37213815685751</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>27.12801589627779</v>
+        <v>28.37213815737918</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>33.3502019290781</v>
+        <v>28.37213817219747</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>36.9500660516219</v>
+        <v>28.3721381763827</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>11.40485882090539</v>
+        <v>28.37213812830108</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.752925872414</v>
+        <v>28.372138166309</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>33.92121213260012</v>
+        <v>28.37213817712744</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>8.803397775274519</v>
+        <v>28.3721381668436</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.70651320876716</v>
+        <v>28.37213820857881</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>32.76180006105005</v>
+        <v>28.37213822200771</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>2.185624685863221</v>
+        <v>28.37213816480272</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>22.23570317841146</v>
+        <v>28.37213820865972</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>29.12705355544141</v>
+        <v>28.37213822312073</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>8.800566268675432</v>
+        <v>28.37213817588554</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>30.7020290445913</v>
+        <v>28.37213822083731</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>32.42980420126715</v>
+        <v>28.37213822101637</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>27.14840947738378</v>
+        <v>28.37213821677428</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>36.17696854656697</v>
+        <v>28.37213823530908</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>41.0897882914353</v>
+        <v>28.37213824018538</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>10.00609618862046</v>
+        <v>28.37213818282047</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>31.92571861928992</v>
+        <v>28.37213822722057</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>38.58968486459028</v>
+        <v>28.37213823985644</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>11.5095068213215</v>
+        <v>28.37213819568495</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>30.14467899560093</v>
+        <v>28.37213823694937</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>36.6463592025349</v>
+        <v>28.37213825004846</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>5.130760649281729</v>
+        <v>28.37213819404182</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>26.70320158159181</v>
+        <v>28.37213823741092</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>33.53534104449285</v>
+        <v>28.37213825139774</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>13.46276447391224</v>
+        <v>28.37213820654785</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>36.24425538276884</v>
+        <v>28.3721382509774</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>43.49843049400481</v>
+        <v>28.37213826409719</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>40.18148443697297</v>
+        <v>28.37213825927442</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>49.28725686532849</v>
+        <v>28.37213827708085</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>54.41801190415669</v>
+        <v>28.37213828150215</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>19.86192706587926</v>
+        <v>28.37213822376972</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>43.05529207452539</v>
+        <v>28.37213826774154</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>50.2014333276903</v>
+        <v>28.37213828068461</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>39.5510251326774</v>
+        <v>28.37213824652114</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>34.28044831104138</v>
+        <v>28.37213824160247</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>43.43270385273975</v>
+        <v>28.37213826040226</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>48.43117685821127</v>
+        <v>28.37213826535275</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>16.42413237062526</v>
+        <v>28.37213820545461</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>39.20256653836373</v>
+        <v>28.37213825222683</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>45.89532173648102</v>
+        <v>28.37213826462643</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>17.1544276374212</v>
+        <v>28.37213821724526</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>36.48324753516999</v>
+        <v>28.37213826074198</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>42.9965304619186</v>
+        <v>28.37213827373057</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>11.74019115236627</v>
+        <v>28.37213821772042</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>34.14816252225494</v>
+        <v>28.37213826364114</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>41.00813164768819</v>
+        <v>28.37213827763035</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>20.57089780037318</v>
+        <v>28.37213823144958</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>44.14986108472733</v>
+        <v>28.37213827830257</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>51.42251899305064</v>
+        <v>28.37213829131661</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>48.16925810477068</v>
+        <v>28.37213828576001</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>57.38712050698854</v>
+        <v>28.37213830384024</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>62.57679206415077</v>
+        <v>28.37213830828301</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>27.07628766882547</v>
+        <v>28.37213824812342</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>51.12000346230555</v>
+        <v>28.37213829443624</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>58.27890467423697</v>
+        <v>28.37213830708174</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>40.81571719256113</v>
+        <v>28.37213825059561</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>35.58148883106686</v>
+        <v>28.37213824548227</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>44.68807597055424</v>
+        <v>28.37213826406683</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>49.68117760374336</v>
+        <v>28.37213826901924</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>17.67861286884372</v>
+        <v>28.37213820931046</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>40.51660733593439</v>
+        <v>28.37213825605157</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>47.18019340998711</v>
+        <v>28.37213826827461</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>18.21194809396593</v>
+        <v>28.37213822089076</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>37.57627496147053</v>
+        <v>28.37213826431502</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>44.05703683357769</v>
+        <v>28.37213827716615</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>13.13590951358795</v>
+        <v>28.37213822197495</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>35.57957614703854</v>
+        <v>28.37213826783427</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>42.41381776235956</v>
+        <v>28.37213828171677</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>22.00201089463443</v>
+        <v>28.37213823571796</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>45.60582507513728</v>
+        <v>28.37213828248861</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>52.84110611378094</v>
+        <v>28.37213829536465</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>49.6227381726987</v>
+        <v>28.37213828961458</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>58.79236585133741</v>
+        <v>28.37213830750163</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>63.96786944117179</v>
+        <v>28.37213831192731</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.48661806465824</v>
+        <v>28.37213825193142</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>52.58080744013736</v>
+        <v>28.37213829824422</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>59.70168051973103</v>
+        <v>28.37213831069154</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>37.4760254239109</v>
+        <v>28.37213823425675</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>32.2552333075983</v>
+        <v>28.37213822923193</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>41.49048730074779</v>
+        <v>28.37213824769875</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>46.49219634978593</v>
+        <v>28.37213825272139</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>14.38021524073745</v>
+        <v>28.3721381942889</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>37.12989369620443</v>
+        <v>28.37213823991929</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>43.85024762115454</v>
+        <v>28.37213825245091</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>15.18498164710207</v>
+        <v>28.37213820713047</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>34.51142048206401</v>
+        <v>28.37213824938036</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>41.05587937173645</v>
+        <v>28.37213826252363</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>9.294483619025304</v>
+        <v>28.3721382072819</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>31.69711176705996</v>
+        <v>28.37213825175924</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>38.57994802537067</v>
+        <v>28.3721382659187</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>18.12667676460439</v>
+        <v>28.37213822024076</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>41.72570504636121</v>
+        <v>28.3721382657361</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>49.0383133088146</v>
+        <v>28.37213827889395</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>45.8388525698598</v>
+        <v>28.3721382732753</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>55.14283883235954</v>
+        <v>28.37213829105285</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>60.34827130401358</v>
+        <v>28.37213829555535</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>24.72769411030467</v>
+        <v>28.37213823664353</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>48.7665229363365</v>
+        <v>28.37213828191718</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>55.95824095100652</v>
+        <v>28.37213829470569</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>6.096608917203383</v>
+        <v>28.37213810281036</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>17.8234550866325</v>
+        <v>28.37213813439854</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>22.29807014430065</v>
+        <v>28.37213814495468</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>2.139987690496739</v>
+        <v>28.37213810159893</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.47725046480276</v>
+        <v>28.37213813573365</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>21.12816978755443</v>
+        <v>28.37213814637869</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>6.492756460091769</v>
+        <v>28.37213810618712</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>21.55965668088133</v>
+        <v>28.37213814065501</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.35057168785809</v>
+        <v>28.37213815098117</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>22.60848697047576</v>
+        <v>28.37213815190126</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.00299617495862</v>
+        <v>28.37213816555162</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.50824554370857</v>
+        <v>28.37213816939894</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>9.903786964067706</v>
+        <v>28.37213812700278</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>23.45259195012735</v>
+        <v>28.37213816024074</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.28637034072808</v>
+        <v>28.37213817031109</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>5.818186091429748</v>
+        <v>28.3721381608013</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>20.93252531792334</v>
+        <v>28.37213819765202</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.79816842826117</v>
+        <v>28.3721382101571</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>-0.8779623526875682</v>
+        <v>28.37213815771684</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>16.00884598827591</v>
+        <v>28.37213819636143</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>22.67986524626951</v>
+        <v>28.37213820967373</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>4.475282091585164</v>
+        <v>28.37213816725966</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>23.13485822014906</v>
+        <v>28.37213820698232</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>9.721767550258143</v>
+        <v>28.37213811735126</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.99081495149785</v>
+        <v>28.37213815065479</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.46513636204378</v>
+        <v>28.37213816115084</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>6.512839965089594</v>
+        <v>28.37213811775737</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>21.50689897065401</v>
+        <v>28.37213815384067</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.1725243773714</v>
+        <v>28.37213816448768</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>11.18190615250351</v>
+        <v>28.37213812328</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>26.86884268744638</v>
+        <v>28.37213815960896</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>31.6693548159036</v>
+        <v>28.37213816987775</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.0577572165531</v>
+        <v>28.37213817076168</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>33.56312447816052</v>
+        <v>28.37213818468867</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>37.11788037999176</v>
+        <v>28.37213818859793</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>14.70739804723085</v>
+        <v>28.37213814395109</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.92174057798047</v>
+        <v>28.37213817902029</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>34.74668411300863</v>
+        <v>28.37213818888468</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>10.39454136416303</v>
+        <v>28.37213817966855</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>26.13410077347855</v>
+        <v>28.37213821852137</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>32.05101765472264</v>
+        <v>28.37213823101128</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>4.576396395338453</v>
+        <v>28.3721381784912</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>22.20631685745448</v>
+        <v>28.37213821940789</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.9495347927754</v>
+        <v>28.37213823281141</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>10.32982490711492</v>
+        <v>28.37213818917366</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.70305032770961</v>
+        <v>28.37213823106335</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>10.33794162903617</v>
+        <v>28.37213812089387</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>22.65884710658832</v>
+        <v>28.37213815412155</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.11394207865169</v>
+        <v>28.37213816452525</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>7.398692784622575</v>
+        <v>28.37213812180619</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>22.44450825169194</v>
+        <v>28.37213815781379</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>27.09671188170272</v>
+        <v>28.37213816839087</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>12.09046796428475</v>
+        <v>28.37213812739159</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>27.81942674785471</v>
+        <v>28.37213816363326</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>32.60007717503115</v>
+        <v>28.37213817381217</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>29.04671641589898</v>
+        <v>28.3721381745842</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>34.53535966726334</v>
+        <v>28.37213818836945</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>38.08599364961145</v>
+        <v>28.37213819228425</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>15.62532908644001</v>
+        <v>28.37213814766943</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>29.91985935383121</v>
+        <v>28.37213818273988</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>35.71282783278807</v>
+        <v>28.37213819246327</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>11.21938257500954</v>
+        <v>28.37213818312012</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>27.00116245491196</v>
+        <v>28.37213822188222</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>32.90282095554836</v>
+        <v>28.3721382342751</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>5.713958267934707</v>
+        <v>28.37213818249847</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>23.39080661100185</v>
+        <v>28.37213822332875</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.12283226312832</v>
+        <v>28.37213823666985</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>11.50332249328496</v>
+        <v>28.37213819321871</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>30.90922210293883</v>
+        <v>28.37213823501</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>8.509281969951882</v>
+        <v>28.37213811054526</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>20.7379277875646</v>
+        <v>28.37213814281585</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>25.23028078605193</v>
+        <v>28.37213815345263</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>4.922979051903184</v>
+        <v>28.37213811080437</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>19.87876130666093</v>
+        <v>28.37213814571835</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>24.55472056423713</v>
+        <v>28.37213815652157</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>9.603933941468537</v>
+        <v>28.37213811571831</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>25.26931717083711</v>
+        <v>28.37213815092699</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>30.08930905632787</v>
+        <v>28.37213816133808</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.46719043966822</v>
+        <v>28.37213816190478</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>32.00796487473662</v>
+        <v>28.37213817557142</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>35.56814967920751</v>
+        <v>28.37213817955455</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>13.16109761614449</v>
+        <v>28.37213813603789</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>27.30517376262127</v>
+        <v>28.37213817024685</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>33.16464824081612</v>
+        <v>28.3721381802509</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>8.866727813384514</v>
+        <v>28.37213817025231</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>24.58224820954471</v>
+        <v>28.37213820790306</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>30.5157220661462</v>
+        <v>28.37213822055</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>2.595405114169449</v>
+        <v>28.37213816876684</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>20.19172628377938</v>
+        <v>28.37213820830693</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>26.94853099645954</v>
+        <v>28.37213822189321</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>8.351132885671344</v>
+        <v>28.37213817871316</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>27.71874397458274</v>
+        <v>28.37213821930967</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>29.64682538249897</v>
+        <v>28.37213821945443</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>24.73317556143268</v>
+        <v>28.37213821555447</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>32.90921660834006</v>
+        <v>28.37213823266042</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>37.81259928237564</v>
+        <v>28.37213823728018</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>10.01467741861116</v>
+        <v>28.37213818527883</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>29.50865562897036</v>
+        <v>28.3721382253524</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>35.98703337638205</v>
+        <v>28.37213823698307</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>11.67786173839648</v>
+        <v>28.37213819668539</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.13574660146161</v>
+        <v>28.37213823398089</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>34.34867158092553</v>
+        <v>28.37213824615617</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>5.724234083123129</v>
+        <v>28.37213819546342</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>24.77283654341079</v>
+        <v>28.37213823463733</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>31.38210150102976</v>
+        <v>28.37213824763135</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>13.05209024527167</v>
+        <v>28.37213820665607</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>33.30511437233346</v>
+        <v>28.37213824685498</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>40.21941988223059</v>
+        <v>28.37213825901578</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>37.22764737254139</v>
+        <v>28.37213825452052</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>45.42312224207002</v>
+        <v>28.37213827093319</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>50.45471083738168</v>
+        <v>28.37213827507539</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>19.58793644978722</v>
+        <v>28.37213822284347</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>40.1787017155204</v>
+        <v>28.37213826250052</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>47.07070823074831</v>
+        <v>28.3721382742983</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>36.28308851646683</v>
+        <v>28.37213824353998</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>31.37682417529888</v>
+        <v>28.37213823902398</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>39.66967236913379</v>
+        <v>28.37213825636954</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>44.65683477544487</v>
+        <v>28.37213826105808</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>16.01320712488736</v>
+        <v>28.37213820672563</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>36.28181829109607</v>
+        <v>28.37213824895966</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>42.79904450558844</v>
+        <v>28.37213826039925</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>16.94281952245242</v>
+        <v>28.37213821704952</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>34.03057896966967</v>
+        <v>28.3721382563823</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>40.2662044255759</v>
+        <v>28.37213826848042</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>11.87632063192192</v>
+        <v>28.3721382177853</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>31.68140154315369</v>
+        <v>28.37213825927584</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>38.33045146752306</v>
+        <v>28.37213827230552</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>19.6750628938003</v>
+        <v>28.37213823016193</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>40.65348161236403</v>
+        <v>28.37213827257451</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>47.59818514971914</v>
+        <v>28.37213828466476</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>44.66036685292832</v>
+        <v>28.37213827949159</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>52.96363527195814</v>
+        <v>28.37213829614905</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>58.05429725756923</v>
+        <v>28.3721383003138</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.32073512651759</v>
+        <v>28.37213824585662</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>47.67803225395775</v>
+        <v>28.37213828763591</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>54.59440253524775</v>
+        <v>28.37213829918972</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>37.47300579486691</v>
+        <v>28.37213824739248</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>32.59837420527284</v>
+        <v>28.37213824268596</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>40.85141255367176</v>
+        <v>28.37213825983562</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>45.83274556381116</v>
+        <v>28.37213826452746</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>17.18732238125292</v>
+        <v>28.37213821035761</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>37.51249033401641</v>
+        <v>28.37213825257081</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>44.00472955907003</v>
+        <v>28.37213826385838</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>17.92914998632518</v>
+        <v>28.37213822048116</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>35.05313314225393</v>
+        <v>28.37213825975324</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>41.2606472223113</v>
+        <v>28.37213827173193</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>13.1743528873022</v>
+        <v>28.37213822177487</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>33.0160174962365</v>
+        <v>28.37213826321335</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>39.64299155300758</v>
+        <v>28.37213827615354</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>21.01104049396071</v>
+        <v>28.37213823417874</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>42.0161359060198</v>
+        <v>28.37213827652195</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>48.92856383402036</v>
+        <v>28.37213828849341</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>46.02017206667912</v>
+        <v>28.37213828313214</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>54.28212903474083</v>
+        <v>28.37213829961334</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>59.35911178464293</v>
+        <v>28.37213830376415</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>27.63542798922653</v>
+        <v>28.37213824944411</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>49.04177878753278</v>
+        <v>28.37213829123004</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>55.92495258427665</v>
+        <v>28.37213830261405</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>34.3191304501218</v>
+        <v>28.37213823192825</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>29.46174066804665</v>
+        <v>28.3721382272655</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>37.82762842453466</v>
+        <v>28.37213824431514</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>42.81914291467216</v>
+        <v>28.372138249089</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>14.09174613645277</v>
+        <v>28.37213819608649</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>34.32923078798695</v>
+        <v>28.37213823729367</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>40.87055527928956</v>
+        <v>28.37213824886528</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>15.10172610981236</v>
+        <v>28.37213820744299</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>32.18001381925041</v>
+        <v>28.37213824564314</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>38.44207145632315</v>
+        <v>28.37213825788573</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>9.594839983160981</v>
+        <v>28.3721382078797</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>29.38755037774573</v>
+        <v>28.37213824806615</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.05598503749444</v>
+        <v>28.37213826124924</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>17.38695860028798</v>
+        <v>28.37213821952185</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>38.3761907435393</v>
+        <v>28.37213826070013</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>45.35504071672406</v>
+        <v>28.37213827292594</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>42.4729230052037</v>
+        <v>28.37213826765751</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>50.85097459338661</v>
+        <v>28.37213828404966</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>55.95618452633309</v>
+        <v>28.37213828828239</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>24.12709646961392</v>
+        <v>28.37213823494518</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>45.47452806383153</v>
+        <v>28.37213827579555</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>52.41924669285574</v>
+        <v>28.37213828749147</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>7.008845261180642</v>
+        <v>28.37213810159489</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>18.96391096686808</v>
+        <v>28.37213813299709</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>23.21879814785005</v>
+        <v>28.37213814330804</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>2.860580712743321</v>
+        <v>28.37213809979669</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>17.26763689769912</v>
+        <v>28.37213813366541</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>21.77238637962255</v>
+        <v>28.37213814410548</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>7.215430554841088</v>
+        <v>28.37213810432551</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>22.40084405090427</v>
+        <v>28.37213813853154</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>26.98244271970671</v>
+        <v>28.3721381486425</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>23.35443030689166</v>
+        <v>28.37213814987992</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.76100864329873</v>
+        <v>28.37213816331836</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>32.09703605282061</v>
+        <v>28.37213816708511</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>10.18803988877993</v>
+        <v>28.372138124805</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>24.12212608704571</v>
+        <v>28.37213815804977</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>29.65989109128359</v>
+        <v>28.37213816794666</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>6.434463855416503</v>
+        <v>28.3721381575647</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>21.63238534839222</v>
+        <v>28.37213819413431</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>27.25415148353398</v>
+        <v>28.37213820640657</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>-0.3915939044247558</v>
+        <v>28.37213815394538</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>16.45198431394524</v>
+        <v>28.37213819223791</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>22.93768524182477</v>
+        <v>28.37213820533509</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>4.960163444849936</v>
+        <v>28.37213816336492</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>23.60510223390023</v>
+        <v>28.37213820273344</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>10.52471470401427</v>
+        <v>28.37213811567618</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>23.02219028677654</v>
+        <v>28.37213814879521</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>27.27518957863809</v>
+        <v>28.37213815903246</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>7.105261573998714</v>
+        <v>28.37213811547571</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.16780028491643</v>
+        <v>28.37213815129428</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.68610863555201</v>
+        <v>28.37213816172261</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>11.76642585659527</v>
+        <v>28.37213812089868</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>27.57018829406772</v>
+        <v>28.3721381569647</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>32.15932195888364</v>
+        <v>28.37213816700416</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.64549894912708</v>
+        <v>28.37213816816996</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>34.16251639462313</v>
+        <v>28.372138181889</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>37.54674349107894</v>
+        <v>28.37213818571234</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>14.84269619779463</v>
+        <v>28.37213814122003</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>29.4446647806367</v>
+        <v>28.37213817630505</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>34.97217619597812</v>
+        <v>28.37213818598794</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>10.88419456055927</v>
+        <v>28.37213817589591</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>26.70701208244611</v>
+        <v>28.37213821446859</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>32.37713359490645</v>
+        <v>28.37213822670838</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>4.916443298249167</v>
+        <v>28.37213817416289</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>22.50133444714336</v>
+        <v>28.37213821472685</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>29.05688383222967</v>
+        <v>28.37213822789737</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>10.65777130161561</v>
+        <v>28.37213818468194</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>30.01393803293644</v>
+        <v>28.37213822621599</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>11.11809407957657</v>
+        <v>28.37213811917872</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>23.66484169781849</v>
+        <v>28.37213815222047</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>27.89977835615443</v>
+        <v>28.3721381623658</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>7.965608687147665</v>
+        <v>28.37213811948805</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>23.07813493229638</v>
+        <v>28.37213815523047</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>27.58386396738467</v>
+        <v>28.372138165589</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>12.64725677509876</v>
+        <v>28.37213812496984</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.49092001424534</v>
+        <v>28.37213816094814</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>33.06112925265376</v>
+        <v>28.37213817089718</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>29.60166788068923</v>
+        <v>28.37213817194652</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>35.10148572257879</v>
+        <v>28.37213818552569</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>38.4823654463713</v>
+        <v>28.37213818935323</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>15.73506050480024</v>
+        <v>28.37213814490839</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>30.41315733478828</v>
+        <v>28.3721381799893</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>35.91010869977741</v>
+        <v>28.37213818952995</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>11.68766755886782</v>
+        <v>28.37213817933031</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>27.55130831305637</v>
+        <v>28.3721382178114</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>33.2073738711055</v>
+        <v>28.37213822995321</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>6.028885447279858</v>
+        <v>28.37213817815385</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>23.65987588021653</v>
+        <v>28.37213821863099</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.20530199472531</v>
+        <v>28.3721382317386</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>11.80394689493826</v>
+        <v>28.37213818870861</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>31.1917056337245</v>
+        <v>28.37213823014432</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>9.354388939957939</v>
+        <v>28.37213810917675</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>21.8156651555996</v>
+        <v>28.37213814125536</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.08469778008926</v>
+        <v>28.37213815164052</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>5.563840763598485</v>
+        <v>28.3721381088396</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>20.59056564259007</v>
+        <v>28.37213814348119</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>25.11786114660581</v>
+        <v>28.37213815407342</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>10.23888859608275</v>
+        <v>28.37213811368112</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.02450531834151</v>
+        <v>28.37213814862269</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>30.63133350866493</v>
+        <v>28.37213815880923</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>27.11128942566702</v>
+        <v>28.37213815968827</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>32.66413849831584</v>
+        <v>28.37213817314249</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>36.0525998633339</v>
+        <v>28.37213817703381</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>13.3416700311458</v>
+        <v>28.37213813368271</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>27.87867939295078</v>
+        <v>28.37213816789021</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>33.4387557427255</v>
+        <v>28.37213817770707</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>9.403573108867803</v>
+        <v>28.37213816685084</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>25.20555344017895</v>
+        <v>28.37213820421243</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>30.89012221707846</v>
+        <v>28.37213821661646</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>2.988804091480169</v>
+        <v>28.37213816481711</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>20.54199610879808</v>
+        <v>28.37213820399522</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>27.10948410495267</v>
+        <v>28.37213821735835</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>8.735295446630314</v>
+        <v>28.37213817463043</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.08852431874853</v>
+        <v>28.37213821486549</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>29.87823130196827</v>
+        <v>28.37213821499935</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>25.11548952051318</v>
+        <v>28.37213821152221</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>33.22673080878022</v>
+        <v>28.37213822834361</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>37.91692156363663</v>
+        <v>28.37213823286424</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>10.00187766945265</v>
+        <v>28.37213818119159</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>29.61379509950637</v>
+        <v>28.37213822107476</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>35.83122028672996</v>
+        <v>28.3721382325922</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>11.96835255922695</v>
+        <v>28.3721381931336</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.49497590758132</v>
+        <v>28.3721382300932</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>34.49872890213906</v>
+        <v>28.37213824211638</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>5.780925794141556</v>
+        <v>28.37213819143804</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>24.76303801839394</v>
+        <v>28.37213823020781</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>31.23372027795111</v>
+        <v>28.37213824305745</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>13.11801579919902</v>
+        <v>28.37213820251388</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>33.33477755838255</v>
+        <v>28.37213824230216</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>40.04191859649256</v>
+        <v>28.3721382543431</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>37.11275855345966</v>
+        <v>28.37213825033581</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>45.25781520023801</v>
+        <v>28.37213826646408</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>50.10824619151124</v>
+        <v>28.37213827054243</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>19.14911379379577</v>
+        <v>28.37213821859789</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>39.85525863154894</v>
+        <v>28.37213825805392</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>46.50455312412124</v>
+        <v>28.37213826980587</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>36.35144494222695</v>
+        <v>28.37213823846766</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>31.58711535763427</v>
+        <v>28.37213823436463</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>39.81333986190363</v>
+        <v>28.37213825142946</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>44.58560365609987</v>
+        <v>28.37213825601421</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>15.8315528776408</v>
+        <v>28.37213820203025</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>36.21985497675966</v>
+        <v>28.37213824408521</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>42.47320129802615</v>
+        <v>28.37213825539922</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>17.10738201364922</v>
+        <v>28.37213821297072</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>34.26192955003568</v>
+        <v>28.37213825196907</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>40.28493459890728</v>
+        <v>28.37213826389775</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>11.78770194475661</v>
+        <v>28.37213821321641</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>31.52226177064695</v>
+        <v>28.37213825430211</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>38.03054067089306</v>
+        <v>28.37213826716953</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>19.58356721271552</v>
+        <v>28.3721382254407</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>40.52170916332526</v>
+        <v>28.37213826744201</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>47.25529421699664</v>
+        <v>28.37213827939338</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>44.37193872864016</v>
+        <v>28.37213827470293</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>52.62196485765141</v>
+        <v>28.37213829108114</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>57.52917812477898</v>
+        <v>28.37213829517759</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>25.71197235492249</v>
+        <v>28.37213824102104</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>47.18532979023798</v>
+        <v>28.37213828261456</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>53.855630483162</v>
+        <v>28.37213829410869</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>37.51387959308757</v>
+        <v>28.37213824229994</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>32.77853839065997</v>
+        <v>28.37213823800611</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>40.96478684993743</v>
+        <v>28.37213825487755</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>45.73222473089481</v>
+        <v>28.37213825946417</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>16.98024943498735</v>
+        <v>28.37213820565129</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>37.42316834074161</v>
+        <v>28.37213824768209</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>43.65254246485594</v>
+        <v>28.37213825884129</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>18.07459346709471</v>
+        <v>28.37213821638478</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>35.2632831583471</v>
+        <v>28.37213825532175</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>41.25921743776716</v>
+        <v>28.37213826712969</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>13.06310701680333</v>
+        <v>28.37213821718807</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>32.83268719650582</v>
+        <v>28.37213825822123</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>39.31991024771241</v>
+        <v>28.37213827099837</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>20.89443157576491</v>
+        <v>28.37213822943851</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>41.85755634923198</v>
+        <v>28.37213827137088</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>48.55975911114088</v>
+        <v>28.37213828320111</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>45.70387217673026</v>
+        <v>28.37213827832141</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>53.91201528726916</v>
+        <v>28.37213829452607</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>58.80620258775808</v>
+        <v>28.37213829860739</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>27.00360447709129</v>
+        <v>28.37213824459666</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>48.5234812549423</v>
+        <v>28.37213828619442</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>55.16148110917598</v>
+        <v>28.37213829751482</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>34.44444037485398</v>
+        <v>28.372138227265</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>29.73051336675289</v>
+        <v>28.37213822303813</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>38.02970779456194</v>
+        <v>28.37213823980427</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>42.80460905995631</v>
+        <v>28.37213824446755</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>13.96038109228622</v>
+        <v>28.37213819182551</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>34.32065173321595</v>
+        <v>28.37213823283299</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>40.59652995563204</v>
+        <v>28.37213824427577</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>15.31338803065618</v>
+        <v>28.37213820370839</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>32.46205481399993</v>
+        <v>28.372138241563</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>38.50997512903066</v>
+        <v>28.37213825364517</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>9.557881231725577</v>
+        <v>28.37213820365537</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>29.28244555548057</v>
+        <v>28.37213824342534</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>35.80900009611075</v>
+        <v>28.37213825645796</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>17.35081118942006</v>
+        <v>28.37213821517346</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>38.30265274637588</v>
+        <v>28.37213825593243</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>45.06894215662579</v>
+        <v>28.37213826802732</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>42.24165454894855</v>
+        <v>28.37213826326038</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>50.56680140699692</v>
+        <v>28.37213827936838</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>55.48775492419286</v>
+        <v>28.37213828352873</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>23.56795926342705</v>
+        <v>28.37213823051033</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>45.03480965396157</v>
+        <v>28.37213827115287</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>51.7319430902469</v>
+        <v>28.37213828278631</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>5.937890389446899</v>
+        <v>28.37213809585155</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>19.66491143242925</v>
+        <v>28.37213813121404</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>24.50489337947827</v>
+        <v>28.37213814279456</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>1.609739641610428</v>
+        <v>28.37213809426391</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>18.19555892660161</v>
+        <v>28.37213813246428</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>23.29191215021424</v>
+        <v>28.37213814416343</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>6.55074287285008</v>
+        <v>28.37213809957202</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>23.96478030069635</v>
+        <v>28.37213813811749</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>29.18007125082974</v>
+        <v>28.372138149462</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>24.85611911931695</v>
+        <v>28.37213815011877</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>31.06175415162431</v>
+        <v>28.37213816524743</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>34.80562578959839</v>
+        <v>28.37213816947032</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>9.875141959877944</v>
+        <v>28.37213812186955</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>25.75821597987186</v>
+        <v>28.37213815916282</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>32.08993470324832</v>
+        <v>28.37213817024527</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>6.832333350512769</v>
+        <v>28.37213816033172</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>24.26139257679314</v>
+        <v>28.37213820152015</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>30.50170887419806</v>
+        <v>28.3721382152286</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>-0.475038089067624</v>
+        <v>28.37213815669962</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>18.9331381923385</v>
+        <v>28.37213819988096</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>26.10722850009878</v>
+        <v>28.37213821448995</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>5.698218581733336</v>
+        <v>28.37213816756198</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>27.05910193058577</v>
+        <v>28.37213821192582</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>9.967463835777032</v>
+        <v>28.37213811196838</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>24.30989370925633</v>
+        <v>28.37213814925794</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>29.14316913757792</v>
+        <v>28.37213816074769</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>6.461876024391842</v>
+        <v>28.37213811216468</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>23.79228580963947</v>
+        <v>28.37213815255824</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.89858060055685</v>
+        <v>28.37213816423493</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>11.75108479443019</v>
+        <v>28.37213811848375</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>29.86610632474056</v>
+        <v>28.37213815911715</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>35.08559861880435</v>
+        <v>28.37213817037346</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>30.89427255216883</v>
+        <v>28.37213817094514</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>37.22471544240356</v>
+        <v>28.37213818638027</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>41.02112464226177</v>
+        <v>28.37213819066274</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>15.1901148324212</v>
+        <v>28.37213814057844</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>31.8267087928436</v>
+        <v>28.37213817993072</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>38.14432312336093</v>
+        <v>28.37213819076126</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>11.913569794131</v>
+        <v>28.37213818116395</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>30.05033981110014</v>
+        <v>28.37213822459363</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>36.33703558180768</v>
+        <v>28.37213823825423</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>5.572890102123701</v>
+        <v>28.37213817963822</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>25.82198975739882</v>
+        <v>28.37213822536759</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>33.0651388287185</v>
+        <v>28.37213824004436</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>12.18859671952264</v>
+        <v>28.37213819173736</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>34.35458131953365</v>
+        <v>28.37213823852522</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>10.64491691112678</v>
+        <v>28.37213811586179</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>25.04232980450863</v>
+        <v>28.37213815306623</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>29.85317649510616</v>
+        <v>28.37213816445091</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>7.438002135084506</v>
+        <v>28.37213811663039</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>24.82385166956164</v>
+        <v>28.37213815693974</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>29.9137041104468</v>
+        <v>28.37213816853672</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>12.75102019741825</v>
+        <v>28.37213812301173</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>30.91001492744351</v>
+        <v>28.37213816354756</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>36.1061101448276</v>
+        <v>28.37213817470069</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>31.97890074338967</v>
+        <v>28.37213817515289</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>38.28945718238841</v>
+        <v>28.3721381904299</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>42.08129018517584</v>
+        <v>28.37213819471614</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>16.20229214866682</v>
+        <v>28.37213814468272</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>32.92398132698936</v>
+        <v>28.37213818403184</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>39.20533930678604</v>
+        <v>28.37213819470275</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>12.81639222754934</v>
+        <v>28.37213818494758</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>30.99811012978856</v>
+        <v>28.37213822827567</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>37.26695640653576</v>
+        <v>28.37213824182391</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>6.82088198923147</v>
+        <v>28.37213818404553</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>27.12042527718427</v>
+        <v>28.3721382296786</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>34.34984715980048</v>
+        <v>28.37213824428246</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>13.47454854215179</v>
+        <v>28.37213819617827</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>35.67469955100464</v>
+        <v>28.37213824285617</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>8.637241415654781</v>
+        <v>28.37213810446918</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>22.94128274684883</v>
+        <v>28.37213814059598</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>27.79468692248137</v>
+        <v>28.37213815225451</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>4.718693666624478</v>
+        <v>28.37213810453164</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>22.01182573099597</v>
+        <v>28.37213814360508</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.1303107331635</v>
+        <v>28.37213815547142</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>10.02218879688159</v>
+        <v>28.37213811018921</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.11977078083613</v>
+        <v>28.37213814956443</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>33.36133382618804</v>
+        <v>28.37213816098898</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>29.15839046981677</v>
+        <v>28.37213816125966</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>35.53037289533578</v>
+        <v>28.37213817640075</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>39.33198317286345</v>
+        <v>28.37213818076194</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>13.49214935157231</v>
+        <v>28.37213813194682</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>30.05814139379615</v>
+        <v>28.37213817031939</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>36.41425523319184</v>
+        <v>28.37213818131357</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>10.25339439368</v>
+        <v>28.37213817080551</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.36972632181801</v>
+        <v>28.37213821288687</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>34.67403027795115</v>
+        <v>28.37213822673465</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>3.416404447351887</v>
+        <v>28.37213816895757</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>23.63377858970801</v>
+        <v>28.3721382131378</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>30.89178521356186</v>
+        <v>28.37213822803717</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>10.03782733323581</v>
+        <v>28.3721381802538</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>32.20416640969592</v>
+        <v>28.37213822559282</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>34.0405575586108</v>
+        <v>28.37213822561849</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.51441823760516</v>
+        <v>28.37213822101781</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>37.78975443289538</v>
+        <v>28.3721382399853</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>42.98950910788449</v>
+        <v>28.37213824504045</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>11.37398166687126</v>
+        <v>28.37213818682046</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>33.68670451921871</v>
+        <v>28.37213823160652</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>40.6363879980495</v>
+        <v>28.37213824443593</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>11.84866332044478</v>
+        <v>28.37213819891442</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>30.66268343829147</v>
+        <v>28.37213824047251</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>37.42943894005094</v>
+        <v>28.37213825394108</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>5.306608262912661</v>
+        <v>28.37213819736205</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.9935185537574</v>
+        <v>28.37213824101171</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>34.24800564864464</v>
+        <v>28.37213825538521</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>13.57329250462869</v>
+        <v>28.3721382099751</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>36.57797308727417</v>
+        <v>28.37213825473729</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>44.15095573475061</v>
+        <v>28.37213826821921</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>40.69053992234434</v>
+        <v>28.37213826302014</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>50.02948492216872</v>
+        <v>28.37213828122336</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>55.46040211983343</v>
+        <v>28.37213828580111</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>20.43937695910369</v>
+        <v>28.37213822734916</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>43.9126648588331</v>
+        <v>28.3721382716129</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>51.42383131447184</v>
+        <v>28.3721382847368</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>41.40072816177511</v>
+        <v>28.37213825219027</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>35.87831767198052</v>
+        <v>28.37213824688468</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>45.2839928126382</v>
+        <v>28.37213826611402</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>50.57230060545468</v>
+        <v>28.37213827123535</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>18.01372332791546</v>
+        <v>28.37213821044068</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>41.2003604961396</v>
+        <v>28.37213825764695</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>48.18426223124439</v>
+        <v>28.37213827023296</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>17.66168683279029</v>
+        <v>28.37213822136017</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>37.18533856043263</v>
+        <v>28.37213826519663</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>43.96907510540596</v>
+        <v>28.37213827855241</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>12.10045298666881</v>
+        <v>28.3721382219713</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.63860551568198</v>
+        <v>28.37213826821602</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>41.929350930964</v>
+        <v>28.37213828260044</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>20.88380803225941</v>
+        <v>28.37213823586902</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>44.7032934890529</v>
+        <v>28.37213828310527</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>52.30181149252466</v>
+        <v>28.37213829648018</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>48.89683924566101</v>
+        <v>28.37213829050451</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>58.355686337517</v>
+        <v>28.3721383089807</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>63.84880591411929</v>
+        <v>28.37213831357386</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>27.8628190495593</v>
+        <v>28.37213825265913</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>52.19938809626677</v>
+        <v>28.37213829930397</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>59.73071956997362</v>
+        <v>28.37213831212825</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>42.70154333105683</v>
+        <v>28.37213825641119</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>37.21436896551772</v>
+        <v>28.37213825090176</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>46.57430901872863</v>
+        <v>28.37213826991112</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>51.85631861050229</v>
+        <v>28.37213827503331</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>19.30205067668775</v>
+        <v>28.37213821443421</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>42.5488253499411</v>
+        <v>28.37213826161284</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>49.50394205295405</v>
+        <v>28.37213827402429</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>18.74729646528978</v>
+        <v>28.37213822511819</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>38.30870115676908</v>
+        <v>28.37213826888571</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>45.06019827994204</v>
+        <v>28.37213828210453</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>13.53076594186555</v>
+        <v>28.37213822635465</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>36.1070970704393</v>
+        <v>28.37213827254023</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>43.37214123708208</v>
+        <v>28.37213828682225</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>22.35422594153862</v>
+        <v>28.37213824027477</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>46.20079562892911</v>
+        <v>28.37213828743269</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>53.76218283684269</v>
+        <v>28.37213830067048</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>50.39040815403784</v>
+        <v>28.37213829449236</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>59.80123622891247</v>
+        <v>28.37213831277105</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>65.27916339038538</v>
+        <v>28.37213831734604</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>29.31151276375681</v>
+        <v>28.37213825659992</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>53.69917609272669</v>
+        <v>28.37213830324684</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>61.19271024142809</v>
+        <v>28.37213831587633</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>39.27246441332538</v>
+        <v>28.37213823942739</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>33.80303026221075</v>
+        <v>28.37213823399998</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>43.29238246443026</v>
+        <v>28.372138252896</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>48.58408533489181</v>
+        <v>28.3721382581086</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>15.92117375897816</v>
+        <v>28.37213819880632</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>39.07955244619713</v>
+        <v>28.37213824484857</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>46.09006255259861</v>
+        <v>28.37213825759162</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>15.64642715934205</v>
+        <v>28.37213821078464</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>35.16569577907822</v>
+        <v>28.37213825334624</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>41.97893235908521</v>
+        <v>28.37213826687642</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>9.600225449053923</v>
+        <v>28.37213821107992</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>32.13032864328591</v>
+        <v>28.37213825585213</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>39.44289982528938</v>
+        <v>28.37213827042753</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>18.3797500830456</v>
+        <v>28.37213822417619</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>42.21741424616997</v>
+        <v>28.37213827002503</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>49.85426854206843</v>
+        <v>28.3721382835638</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>46.50916841394634</v>
+        <v>28.37213827752424</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>56.05428283570005</v>
+        <v>28.37213829569711</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>61.56302319454502</v>
+        <v>28.37213830036436</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>25.45911999094159</v>
+        <v>28.3721382407187</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>49.79105946807791</v>
+        <v>28.37213828630224</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>57.35407494548993</v>
+        <v>28.37213829929369</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>8.409952821253363</v>
+        <v>28.37213810383211</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>20.7065563737044</v>
+        <v>28.37213813686905</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>25.43462323071864</v>
+        <v>28.37213814792787</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>4.586213097763622</v>
+        <v>28.3721381028577</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>19.59657532077665</v>
+        <v>28.37213813856012</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>24.55815130105261</v>
+        <v>28.37213814971002</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>9.140674436326421</v>
+        <v>28.37213810778718</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>24.9451842660312</v>
+        <v>28.37213814385652</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>30.02739992247407</v>
+        <v>28.37213815467251</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>25.85413497693282</v>
+        <v>28.37213815518638</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>31.5226479398608</v>
+        <v>28.37213816947622</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>35.25201304625005</v>
+        <v>28.37213817354185</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>12.54676559286446</v>
+        <v>28.37213812914313</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.72489154957878</v>
+        <v>28.37213816381848</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>32.9500692494881</v>
+        <v>28.37213817434979</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>8.501416941569996</v>
+        <v>28.37213816494413</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>24.32645111223139</v>
+        <v>28.37213820341534</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>30.47632183901989</v>
+        <v>28.37213821651229</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>1.901925033488194</v>
+        <v>28.37213816212478</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>19.57971520452374</v>
+        <v>28.37213820244911</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.61727364889587</v>
+        <v>28.37213821638495</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>7.446326798993187</v>
+        <v>28.37213817213325</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>27.00070645616492</v>
+        <v>28.37213821362347</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>12.29414976191193</v>
+        <v>28.37213811937996</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>25.16146672008489</v>
+        <v>28.37213815421254</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>29.88706577049835</v>
+        <v>28.37213816520347</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>9.251016065548825</v>
+        <v>28.37213812008877</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>24.95216937072948</v>
+        <v>28.37213815782986</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>29.92781541151566</v>
+        <v>28.37213816897906</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>14.14143238425103</v>
+        <v>28.37213812601268</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>30.59816576276641</v>
+        <v>28.37213816403043</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>35.68879528631673</v>
+        <v>28.37213817478177</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>31.65070869069822</v>
+        <v>28.37213817525007</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>37.43555976460921</v>
+        <v>28.37213818982489</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>41.21618966287966</v>
+        <v>28.37213819394856</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>17.66398316550499</v>
+        <v>28.37213814719893</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>32.5383594500268</v>
+        <v>28.37213818378707</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>38.75472598632187</v>
+        <v>28.37213819409356</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>13.36047064362108</v>
+        <v>28.37213818495646</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>29.84232096651001</v>
+        <v>28.37213822551461</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>36.04219743447819</v>
+        <v>28.3721382385908</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>7.67914861344169</v>
+        <v>28.37213818412523</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.13638631139505</v>
+        <v>28.37213822681632</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>33.24682552338485</v>
+        <v>28.37213824084479</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>13.64598705332854</v>
+        <v>28.37213819534181</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>33.9497342351643</v>
+        <v>28.37213823909236</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>12.94037987169487</v>
+        <v>28.37213812308445</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>25.86310595989339</v>
+        <v>28.37213815784157</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>30.5674237394348</v>
+        <v>28.37213816873524</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>10.17646616022497</v>
+        <v>28.37213812432521</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>25.93319676534509</v>
+        <v>28.3721381619905</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>30.89331207778714</v>
+        <v>28.37213817306659</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>15.09234665291964</v>
+        <v>28.37213813031581</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>31.59417866157916</v>
+        <v>28.37213816824585</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>36.66275190846963</v>
+        <v>28.37213817890257</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>32.68657915885623</v>
+        <v>28.37213817925656</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>38.45414667691459</v>
+        <v>28.3721381936838</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>42.22952420495726</v>
+        <v>28.37213819781141</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>18.62489035273549</v>
+        <v>28.37213815109481</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>33.58364547291986</v>
+        <v>28.37213818768729</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>39.76551100771945</v>
+        <v>28.37213819784642</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>14.21815544305124</v>
+        <v>28.37213818855031</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>30.74515514683967</v>
+        <v>28.37213822901688</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>36.92764436027424</v>
+        <v>28.37213824198988</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>8.860380027835962</v>
+        <v>28.37213818829907</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>27.36764134840309</v>
+        <v>28.37213823090262</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>34.46465969411882</v>
+        <v>28.37213824486492</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>14.86674677763743</v>
+        <v>28.37213819955738</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>35.20559640118075</v>
+        <v>28.37213824320822</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>11.03364962344876</v>
+        <v>28.37213811208607</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>23.85782922603454</v>
+        <v>28.37213814584635</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.60325302087219</v>
+        <v>28.37213815698771</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>7.600629397982328</v>
+        <v>28.37213811266292</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>23.26051181308315</v>
+        <v>28.37213814918806</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.24841202331666</v>
+        <v>28.37213816050422</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>12.50182165529681</v>
+        <v>28.37213811794189</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.93512388700854</v>
+        <v>28.37213815479532</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>34.04728071347303</v>
+        <v>28.37213816569883</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>29.9957284758105</v>
+        <v>28.37213816584142</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>35.81757886964675</v>
+        <v>28.37213818014853</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>39.60449427808304</v>
+        <v>28.37213818435421</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>16.0560749163769</v>
+        <v>28.37213813877726</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>30.85668916940473</v>
+        <v>28.37213817447312</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>37.11052064364247</v>
+        <v>28.37213818493664</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>11.77897249222086</v>
+        <v>28.37213817495241</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.23497027872318</v>
+        <v>28.3721382142668</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>34.45315840917818</v>
+        <v>28.37213822750811</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>5.630427524928749</v>
+        <v>28.37213817381128</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>24.05195051381992</v>
+        <v>28.37213821507591</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>31.17781992921493</v>
+        <v>28.372138229297</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>11.59719258981888</v>
+        <v>28.37213818424972</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>31.89451996199677</v>
+        <v>28.37213822666006</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>33.84596010004922</v>
+        <v>28.3721382266793</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.50522269372041</v>
+        <v>28.37213822218593</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>37.084132560397</v>
+        <v>28.37213824011597</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>42.25919102739432</v>
+        <v>28.37213824498656</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>13.11950021101167</v>
+        <v>28.37213819053091</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>33.49531074127113</v>
+        <v>28.37213823229041</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>40.33747962285659</v>
+        <v>28.37213824442291</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>13.47385169852812</v>
+        <v>28.37213820150859</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>30.6421586505031</v>
+        <v>28.37213824038272</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>37.20292178324651</v>
+        <v>28.37213825316655</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>7.715360785723774</v>
+        <v>28.37213820060337</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>27.57482239570999</v>
+        <v>28.37213824142053</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>34.61256727945795</v>
+        <v>28.37213825505761</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>15.21888340312861</v>
+        <v>28.37213821226812</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>36.36744806303874</v>
+        <v>28.37213825419445</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>43.69310066817031</v>
+        <v>28.37213826695937</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>40.39968609665907</v>
+        <v>28.37213826183558</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>49.02799724060053</v>
+        <v>28.37213827904406</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>54.36484426681874</v>
+        <v>28.37213828343037</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>22.04163691310354</v>
+        <v>28.37213822881593</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>43.50024458002873</v>
+        <v>28.37213827008374</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>50.83505316113702</v>
+        <v>28.37213828242611</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>40.8632731605985</v>
+        <v>28.37213825214822</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>35.53014310720984</v>
+        <v>28.3721382470053</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>44.2320920937053</v>
+        <v>28.37213826517753</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>49.49333415646807</v>
+        <v>28.37213827011318</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>19.47079085722038</v>
+        <v>28.37213821323881</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>40.65515342665597</v>
+        <v>28.37213825724553</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>47.53669296385301</v>
+        <v>28.37213826916914</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>19.02649559672885</v>
+        <v>28.37213822304677</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>36.85463000718664</v>
+        <v>28.37213826404212</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>43.43731723136004</v>
+        <v>28.37213827674383</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>14.19648060833273</v>
+        <v>28.37213822417576</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>34.84694501926108</v>
+        <v>28.37213826740384</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>41.92584272604289</v>
+        <v>28.37213828107955</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>22.19474859336471</v>
+        <v>28.37213823708991</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>44.10291140522995</v>
+        <v>28.37213828132261</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>51.45954182198581</v>
+        <v>28.37213829401269</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>48.22232970103342</v>
+        <v>28.37213828816925</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>56.96490398892169</v>
+        <v>28.37213830562836</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>62.3630626413216</v>
+        <v>28.37213831003192</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>29.13474014447634</v>
+        <v>28.37213825310958</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>51.39213470994238</v>
+        <v>28.37213829658208</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>58.75298859973604</v>
+        <v>28.37213830866414</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>42.10066369589116</v>
+        <v>28.37213825616406</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>36.80144001901321</v>
+        <v>28.37213825082457</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>45.46194778145846</v>
+        <v>28.37213826879047</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>50.71600626540274</v>
+        <v>28.37213827372786</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>20.69302109502322</v>
+        <v>28.37213821702812</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>41.93654380973146</v>
+        <v>28.37213826101429</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>48.79071949123928</v>
+        <v>28.37213827277861</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>20.05544310796443</v>
+        <v>28.37213822661747</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>37.92224262151997</v>
+        <v>28.37213826755143</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>44.47432121514757</v>
+        <v>28.3721382801275</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>15.54754248382091</v>
+        <v>28.37213822832878</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>36.23689319190063</v>
+        <v>28.37213827150384</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>43.291237654707</v>
+        <v>28.37213828508638</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>23.58789978024846</v>
+        <v>28.37213824127291</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>45.52469153137423</v>
+        <v>28.37213828543487</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>52.84628038855169</v>
+        <v>28.37213829800016</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>49.64051717844638</v>
+        <v>28.37213829196335</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>58.33988841134156</v>
+        <v>28.37213830923692</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>63.72282872048455</v>
+        <v>28.37213831362403</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>30.50623193904849</v>
+        <v>28.37213825685046</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>52.81464902483216</v>
+        <v>28.37213830032882</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>60.13978789833156</v>
+        <v>28.3721383122339</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>38.83037094173778</v>
+        <v>28.37213823986585</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>33.54625900414037</v>
+        <v>28.37213823457332</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>42.32483036293482</v>
+        <v>28.37213825243847</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>47.59112133485878</v>
+        <v>28.37213825746917</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>17.47978932792682</v>
+        <v>28.3721382019754</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>38.63181617722177</v>
+        <v>28.37213824491963</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>45.53961366937583</v>
+        <v>28.37213825699105</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>17.10941050125022</v>
+        <v>28.37213821284817</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>34.92682873490168</v>
+        <v>28.37213825266983</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>41.53803179044272</v>
+        <v>28.37213826552411</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>11.82610470045202</v>
+        <v>28.37213821368174</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>32.46294747656501</v>
+        <v>28.37213825555606</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>39.56316822301943</v>
+        <v>28.37213826939468</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>19.81423822658357</v>
+        <v>28.37213822582085</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>41.73302659447464</v>
+        <v>28.37213826877229</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>49.12631785403289</v>
+        <v>28.37213828160596</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>45.94627458963426</v>
+        <v>28.37213827567219</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>54.76739024735402</v>
+        <v>28.37213829285535</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>60.1812907016871</v>
+        <v>28.37213829733425</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>26.85217849471865</v>
+        <v>28.37213824157685</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>49.09923004987864</v>
+        <v>28.37213828408429</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>56.49102047874992</v>
+        <v>28.37213829632415</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_4/out_of_sample/additive/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.133</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.309</v>
+        <v>17.132</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.047</v>
+        <v>0.753</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.396</v>
+        <v>13.316</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.026</v>
+        <v>0.894</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.778</v>
+        <v>8.933999999999999</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>28.37213809328915</v>
+        <v>4.07915649783456</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.37213812831685</v>
+        <v>7.505146848686255</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.3721381396145</v>
+        <v>14.80693365577549</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.37213809163919</v>
+        <v>-7.573270733372194</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>28.37213812951913</v>
+        <v>6.827077195704216</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>28.37213814092248</v>
+        <v>10.52853991289588</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>28.37213809666882</v>
+        <v>-4.014349332508065</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>28.372138134836</v>
+        <v>19.97024250614132</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>28.37213814588913</v>
+        <v>24.76894468180871</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>28.37213814676297</v>
+        <v>13.67645182215221</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>28.37213816157256</v>
+        <v>19.8452787620349</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>28.37213816562692</v>
+        <v>21.37775880669408</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.37213811873147</v>
+        <v>2.680059056188437</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>28.3721381556849</v>
+        <v>6.486791950837247</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.37213816660608</v>
+        <v>16.78316429768016</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.37213815680913</v>
+        <v>10.77181617623548</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.37213819767184</v>
+        <v>19.66680254298173</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>28.37213821097701</v>
+        <v>24.83128657210796</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>28.37213815303792</v>
+        <v>-2.211891086188405</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>28.37213819591316</v>
+        <v>8.694226282654213</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>28.37213821010951</v>
+        <v>13.08111803702778</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>28.37213816372168</v>
+        <v>-2.16047615789758</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>28.37213820772217</v>
+        <v>22.73533780971216</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>28.372138108533</v>
+        <v>3.442420620093657</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>28.37213814544059</v>
+        <v>14.57057282104661</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>28.37213815665482</v>
+        <v>19.6005634765237</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>28.37213810861914</v>
+        <v>-5.987867303409921</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>28.37213814864676</v>
+        <v>19.21994732920274</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>28.37213816002655</v>
+        <v>21.52008570397344</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>28.37213811459685</v>
+        <v>-1.219645168212868</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>28.37213815480055</v>
+        <v>33.38049262969228</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>28.37213816577242</v>
+        <v>36.55955552394438</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>28.3721381665767</v>
+        <v>36.54156834661222</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>28.37213818169239</v>
+        <v>41.1149699377398</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.3721381858145</v>
+        <v>41.69397089495028</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>28.37213813648526</v>
+        <v>8.442506658263351</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>28.37213817545578</v>
+        <v>27.36369595676861</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>28.37213818613252</v>
+        <v>33.2325928310185</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>28.37213817674689</v>
+        <v>11.95185975902624</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>28.37213821980232</v>
+        <v>30.30964946744239</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>28.3721382330647</v>
+        <v>34.62533435767099</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.37213817502658</v>
+        <v>2.874085575735901</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>28.3721382204044</v>
+        <v>26.84956700408451</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>28.37213823466445</v>
+        <v>31.64861889820696</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>28.37213818687885</v>
+        <v>5.878280585538445</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>28.37213823324973</v>
+        <v>44.15224676401908</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>28.37213811230586</v>
+        <v>-1.843215543879648</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>28.37213814912399</v>
+        <v>10.41710838611793</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>28.37213816023292</v>
+        <v>16.95422705681644</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>28.37213811294651</v>
+        <v>-8.199708832369613</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>28.37213815288618</v>
+        <v>17.87119334802571</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>28.37213816418339</v>
+        <v>21.91309171437822</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>28.37213811898017</v>
+        <v>-3.617061774466837</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>28.37213815908163</v>
+        <v>32.41045664598478</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>28.37213816995006</v>
+        <v>37.50946692049727</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>28.37213817064214</v>
+        <v>36.7779881643473</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>28.37213818560175</v>
+        <v>40.2190341502231</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>28.37213818972982</v>
+        <v>42.7632675678846</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.37213814045032</v>
+        <v>2.311688071029486</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>28.37213817941359</v>
+        <v>24.62062543672528</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>28.37213818992921</v>
+        <v>31.80635083652541</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>28.37213818041438</v>
+        <v>6.33322798118893</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>28.37213822336453</v>
+        <v>25.85530560348409</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>28.37213823651465</v>
+        <v>32.30363651957999</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>28.37213817930161</v>
+        <v>-0.6151903113142154</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>28.37213822458049</v>
+        <v>24.24222192140021</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>28.37213823876435</v>
+        <v>31.59404283283048</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>28.37213819117792</v>
+        <v>2.565436776416572</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>28.37213823743431</v>
+        <v>42.43352304989942</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>28.372138101472</v>
+        <v>-3.741738785575773</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>28.37213813724238</v>
+        <v>6.806874887702616</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>28.37213814860538</v>
+        <v>16.92172601202559</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>28.37213810141645</v>
+        <v>-6.853778605004198</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>28.37213814014987</v>
+        <v>16.15341977978573</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>28.37213815169918</v>
+        <v>23.55289321087426</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>28.37213810676536</v>
+        <v>-4.346012632154721</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>28.37213814573821</v>
+        <v>28.5420973484444</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>28.37213815685751</v>
+        <v>37.26477422965093</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>28.37213815737918</v>
+        <v>27.61683659047815</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>28.37213817219747</v>
+        <v>31.81739791801508</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>28.3721381763827</v>
+        <v>37.9114791897487</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>28.37213812830108</v>
+        <v>0.1519094624957482</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>28.372138166309</v>
+        <v>19.43572655686236</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>28.37213817712744</v>
+        <v>32.14608884501576</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>28.3721381668436</v>
+        <v>4.164856749734962</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>28.37213820857881</v>
+        <v>21.19172801329353</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>28.37213822200771</v>
+        <v>30.57873867254222</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>28.37213816480272</v>
+        <v>-0.6723252013825913</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>28.37213820865972</v>
+        <v>19.67869347058989</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.37213822312073</v>
+        <v>29.52885464736539</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>28.37213817588554</v>
+        <v>-0.4568769569617466</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>28.37213822083731</v>
+        <v>34.72857992720666</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>28.37213822101637</v>
+        <v>30.6757475776623</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>28.37213821677428</v>
+        <v>20.55384578033971</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>28.37213823530908</v>
+        <v>31.94195235056966</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>28.37213824018538</v>
+        <v>34.48008035811759</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>28.37213818282047</v>
+        <v>4.916465896111831</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>28.37213822722057</v>
+        <v>21.18348489361306</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>28.37213823985644</v>
+        <v>27.39506694513801</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>28.37213819568495</v>
+        <v>13.52423333421635</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>28.37213823694937</v>
+        <v>25.31019123894905</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>28.37213825004846</v>
+        <v>34.67378703718035</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>28.37213819404182</v>
+        <v>-4.342601796233598</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>28.37213823741092</v>
+        <v>11.66891594062819</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>28.37213825139774</v>
+        <v>18.45221998424461</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>28.37213820654785</v>
+        <v>-2.724264289067698</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.3721382509774</v>
+        <v>30.66929418530445</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>28.37213826409719</v>
+        <v>43.16368558397089</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>28.37213825927442</v>
+        <v>32.64228101112776</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>28.37213827708085</v>
+        <v>45.90805449353228</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>28.37213828150215</v>
+        <v>52.01493408607591</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>28.37213822376972</v>
+        <v>3.987523390051884</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>28.37213826774154</v>
+        <v>29.93949897168697</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>28.37213828068461</v>
+        <v>40.84752598547746</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>28.37213824652114</v>
+        <v>52.2955285151433</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.37213824160247</v>
+        <v>47.85418032590422</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>28.37213826040226</v>
+        <v>56.17484219664671</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>28.37213826535275</v>
+        <v>57.73778988255073</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.37213820545461</v>
+        <v>16.22354518739108</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>28.37213825222683</v>
+        <v>51.58138238407197</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>28.37213826462643</v>
+        <v>54.73530409730598</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>28.37213821724526</v>
+        <v>17.80988507785703</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.37213826074198</v>
+        <v>41.08043555773494</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>28.37213827373057</v>
+        <v>46.64563263247668</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>28.37213821772042</v>
+        <v>6.49004802908323</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>28.37213826364114</v>
+        <v>38.87105193155141</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>28.37213827763035</v>
+        <v>42.83889578107019</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.37213823144958</v>
+        <v>11.20047038394514</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>28.37213827830257</v>
+        <v>60.42035180381896</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>28.37213829131661</v>
+        <v>69.23501774858738</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>28.37213828576001</v>
+        <v>72.44124526029779</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>28.37213830384024</v>
+        <v>80.55270153574649</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>28.37213830828301</v>
+        <v>84.76580057054338</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>28.37213824812342</v>
+        <v>24.96995424367884</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>28.37213829443624</v>
+        <v>72.57163118514529</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>28.37213830708174</v>
+        <v>76.81020375554279</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>28.37213825059561</v>
+        <v>53.20329776245888</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.37213824548227</v>
+        <v>44.55318480163032</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.37213826406683</v>
+        <v>51.57585121817097</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.37213826901924</v>
+        <v>55.96534768747131</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>28.37213820931046</v>
+        <v>9.219830851722147</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>28.37213825605157</v>
+        <v>48.87389525848204</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>28.37213826827461</v>
+        <v>53.77305088103626</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>28.37213822089076</v>
+        <v>12.04704369687205</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.37213826431502</v>
+        <v>37.43821676647557</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.37213827716615</v>
+        <v>44.49352963461352</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.37213822197495</v>
+        <v>3.581613646895754</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>28.37213826783427</v>
+        <v>38.06757167945599</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>28.37213828171677</v>
+        <v>43.90840701504702</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>28.37213823571796</v>
+        <v>8.606030030465654</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>28.37213828248861</v>
+        <v>60.47366375233574</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>28.37213829536465</v>
+        <v>71.0077231701101</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>28.37213828961458</v>
+        <v>72.80862112666374</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.37213830750163</v>
+        <v>79.60000077134602</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>28.37213831192731</v>
+        <v>86.08328215274432</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>28.37213825193142</v>
+        <v>19.5131668220345</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>28.37213829824422</v>
+        <v>72.53510548679823</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>28.37213831069154</v>
+        <v>78.12948976730804</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>28.37213823425675</v>
+        <v>48.30093729060954</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>28.37213822923193</v>
+        <v>29.43938073151918</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>28.37213824769875</v>
+        <v>38.10157739650757</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>28.37213825272139</v>
+        <v>46.83225421253758</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>28.3721381942889</v>
+        <v>5.27776778627312</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>28.37213823991929</v>
+        <v>40.34895550494764</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>28.37213825245091</v>
+        <v>49.62468868405598</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>28.37213820713047</v>
+        <v>11.82722883998659</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>28.37213824938036</v>
+        <v>34.98596239952168</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.37213826252363</v>
+        <v>47.05302399714176</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>28.3721382072819</v>
+        <v>4.773890832960337</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.37213825175924</v>
+        <v>34.40512898034076</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>28.3721382659187</v>
+        <v>45.04918646220526</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>28.37213822024076</v>
+        <v>7.040937538192072</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.3721382657361</v>
+        <v>54.38823450769148</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.37213827889395</v>
+        <v>70.1512898183275</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.3721382732753</v>
+        <v>59.61850406651922</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>28.37213829105285</v>
+        <v>70.33397365725966</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>28.37213829555535</v>
+        <v>81.65048444328326</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.37213823664353</v>
+        <v>14.68649820545228</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>28.37213828191718</v>
+        <v>63.08766526664031</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>28.37213829470569</v>
+        <v>76.37920775017362</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>28.37213810281036</v>
+        <v>7.0093836155181</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>28.37213813439854</v>
+        <v>7.200450159862985</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>28.37213814495468</v>
+        <v>13.52096464394157</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>28.37213810159893</v>
+        <v>-7.536010455535635</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>28.37213813573365</v>
+        <v>3.05374172752644</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>28.37213814637869</v>
+        <v>6.214943533314457</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>28.37213810618712</v>
+        <v>-1.747834172194057</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>28.37213814065501</v>
+        <v>15.92374315491086</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>28.37213815098117</v>
+        <v>20.66853529613179</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>28.37213815190126</v>
+        <v>10.28872934981334</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>28.37213816555162</v>
+        <v>16.34753886138217</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>28.37213816939894</v>
+        <v>18.95124076112768</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>28.37213812700278</v>
+        <v>6.211783009882094</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>28.37213816024074</v>
+        <v>6.047714064968286</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>28.37213817031109</v>
+        <v>16.66213659467491</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>28.3721381608013</v>
+        <v>10.9630739571242</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.37213819765202</v>
+        <v>16.1845961268067</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.3721382101571</v>
+        <v>23.66836322931873</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>28.37213815771684</v>
+        <v>-4.642462188880653</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>28.37213819636143</v>
+        <v>2.172358944651734</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>28.37213820967373</v>
+        <v>8.654357675705619</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>28.37213816725966</v>
+        <v>-3.615780655881299</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>28.37213820698232</v>
+        <v>14.35846667137801</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>28.37213811735126</v>
+        <v>7.258951955822866</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>28.37213815065479</v>
+        <v>14.75465937707745</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>28.37213816115084</v>
+        <v>19.42087828265828</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>28.37213811775737</v>
+        <v>-5.298244496654132</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>28.37213815384067</v>
+        <v>15.34587949563092</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>28.37213816448768</v>
+        <v>17.80062987799048</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>28.37213812328</v>
+        <v>1.928328895240639</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>28.37213815960896</v>
+        <v>29.58893761369858</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>28.37213816987775</v>
+        <v>33.32590916551168</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>28.37213817076168</v>
+        <v>32.95741217824603</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>28.37213818468867</v>
+        <v>38.01615557756993</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>28.37213818859793</v>
+        <v>39.81074616178796</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>28.37213814395109</v>
+        <v>13.67863099858046</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>28.37213817902029</v>
+        <v>27.4595323817403</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.37213818888468</v>
+        <v>34.44036676510347</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>28.37213817966855</v>
+        <v>13.3082847799697</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.37213821852137</v>
+        <v>27.50969095717299</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>28.37213823101128</v>
+        <v>34.76590579132945</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>28.3721381784912</v>
+        <v>1.616861526759575</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>28.37213821940789</v>
+        <v>20.58920568892254</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>28.37213823281141</v>
+        <v>28.15473401325228</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>28.37213818917366</v>
+        <v>5.759264440549732</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>28.37213823106335</v>
+        <v>36.30593358067605</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>28.37213812089387</v>
+        <v>1.519587569210369</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>28.37213815412155</v>
+        <v>10.17478426884617</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>28.37213816452525</v>
+        <v>16.34311454275494</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>28.37213812180619</v>
+        <v>-8.143673778896673</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>28.37213815781379</v>
+        <v>13.36257497741532</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>28.37213816839087</v>
+        <v>17.61274153749993</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>28.37213812739159</v>
+        <v>-1.142011681203336</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>28.37213816363326</v>
+        <v>27.97773801869689</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>28.37213817381217</v>
+        <v>33.6054189606021</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>28.3721381745842</v>
+        <v>32.29899778844238</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>28.37213818836945</v>
+        <v>36.37471935623793</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>28.37213819228425</v>
+        <v>40.06969830833051</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>28.37213814766943</v>
+        <v>7.33814513147421</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>28.37213818273988</v>
+        <v>24.28901417442752</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>28.37213819246327</v>
+        <v>32.67577752149062</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>28.37213818312012</v>
+        <v>7.390553820808794</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>28.37213822188222</v>
+        <v>22.73361630872714</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>28.3721382342751</v>
+        <v>32.14326439365539</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.37213818249847</v>
+        <v>-2.244878664731583</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>28.37213822332875</v>
+        <v>17.55394862469154</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>28.37213823666985</v>
+        <v>27.76367829706232</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>28.37213819321871</v>
+        <v>2.017173855374299</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>28.37213823501</v>
+        <v>34.12927445327207</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>28.37213811054526</v>
+        <v>-2.131022598914669</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>28.37213814281585</v>
+        <v>4.827517725062602</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>28.37213815345263</v>
+        <v>14.09464585434435</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>28.37213811080437</v>
+        <v>-8.576585436248866</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>28.37213814571835</v>
+        <v>10.02729088933607</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>28.37213815652157</v>
+        <v>17.12782542164666</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>28.37213811571831</v>
+        <v>-3.852329285647453</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>28.37213815092699</v>
+        <v>22.28693492869744</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>28.37213816133808</v>
+        <v>31.06011131499577</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>28.37213816190478</v>
+        <v>21.4667534517022</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>28.37213817557142</v>
+        <v>25.73381013005224</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>28.37213817955455</v>
+        <v>32.82197910663148</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>28.37213813603789</v>
+        <v>2.493805259772888</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>28.37213817024685</v>
+        <v>16.57904491695775</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>28.3721381802509</v>
+        <v>29.97743058315005</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>28.37213817025231</v>
+        <v>4.359963580334213</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>28.37213820790306</v>
+        <v>17.2158724453206</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>28.37213822055</v>
+        <v>29.24518789459952</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>28.37213816876684</v>
+        <v>-3.163549221238508</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>28.37213820830693</v>
+        <v>12.33184717688832</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>28.37213822189321</v>
+        <v>24.80757311146336</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>28.37213817871316</v>
+        <v>-1.989112587552373</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>28.37213821930967</v>
+        <v>25.65798818314648</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>28.37213821945443</v>
+        <v>25.35357840867774</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>28.37213821555447</v>
+        <v>11.92332825726879</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>28.37213823266042</v>
+        <v>23.73659262453062</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>28.37213823728018</v>
+        <v>29.44866376492155</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>28.37213818527883</v>
+        <v>1.621739903567818</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>28.3721382253524</v>
+        <v>13.43186273996633</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>28.37213823698307</v>
+        <v>23.52036222845485</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>28.37213819668539</v>
+        <v>15.43901269176754</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>28.37213823398089</v>
+        <v>22.84405130536974</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>28.37213824615617</v>
+        <v>32.75167811011112</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>28.37213819546342</v>
+        <v>-3.874262270694857</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>28.37213823463733</v>
+        <v>7.168738953582004</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>28.37213824763135</v>
+        <v>14.61579986813548</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>28.37213820665607</v>
+        <v>-1.029589533800625</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>28.37213824685498</v>
+        <v>24.29272708630076</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>28.37213825901578</v>
+        <v>38.05250783663408</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>28.37213825452052</v>
+        <v>25.8861896899884</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>28.37213827093319</v>
+        <v>38.25265775749105</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>28.37213827507539</v>
+        <v>45.78275367743662</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>28.37213822284347</v>
+        <v>5.426468734441269</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>28.37213826250052</v>
+        <v>23.09400007746057</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>28.3721382742983</v>
+        <v>37.02071925377341</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>28.37213824353998</v>
+        <v>48.10415650875807</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>28.37213823902398</v>
+        <v>39.320260387598</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>28.37213825636954</v>
+        <v>48.95071948089238</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>28.37213826105808</v>
+        <v>53.85460513411918</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>28.37213820672563</v>
+        <v>14.93360206675074</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>28.37213824895966</v>
+        <v>44.47863016760942</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>28.37213826039925</v>
+        <v>52.20564683990223</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>28.37213821704952</v>
+        <v>21.65417584960649</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>28.3721382563823</v>
+        <v>39.83771472030519</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>28.37213826848042</v>
+        <v>46.83994381577703</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>28.3721382177853</v>
+        <v>8.342645091469191</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>28.37213825927584</v>
+        <v>34.4798285812363</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>28.37213827230552</v>
+        <v>40.10746409454369</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>28.37213823016193</v>
+        <v>14.54203847395365</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>28.37213827257451</v>
+        <v>54.6306014304861</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>28.37213828466476</v>
+        <v>65.65427433431628</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>28.37213827949159</v>
+        <v>65.4578115001399</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>28.37213829614905</v>
+        <v>73.66463372253428</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.3721383003138</v>
+        <v>79.57108484214586</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>28.37213824585662</v>
+        <v>28.30307813847411</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>28.37213828763591</v>
+        <v>65.7907356262871</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>28.37213829918972</v>
+        <v>74.28361807413964</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.37213824739248</v>
+        <v>48.55576819315603</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>28.37213824268596</v>
+        <v>35.58952717666045</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>28.37213825983562</v>
+        <v>44.10081822182278</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>28.37213826452746</v>
+        <v>51.7384026064608</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>28.37213821035761</v>
+        <v>7.996773746265486</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>28.37213825257081</v>
+        <v>41.53198469578511</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>28.37213826385838</v>
+        <v>51.08840798813529</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>28.37213822048116</v>
+        <v>15.83228170017501</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>28.37213825975324</v>
+        <v>36.07454031969765</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>28.37213827173193</v>
+        <v>44.64009613681262</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>28.37213822177487</v>
+        <v>5.248684141306665</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>28.37213826321335</v>
+        <v>33.36540631697495</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>28.37213827615354</v>
+        <v>40.99676663210917</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>28.37213823417874</v>
+        <v>11.66717803556956</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>28.37213827652195</v>
+        <v>54.33756396582646</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>28.37213828849341</v>
+        <v>67.15271526324121</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>28.37213828313214</v>
+        <v>65.2776136280859</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>28.37213829961334</v>
+        <v>72.32996945229965</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>28.37213830376415</v>
+        <v>80.47832401527478</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>28.37213824944411</v>
+        <v>22.92288290758304</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>28.37213829123004</v>
+        <v>65.42176740488222</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>28.37213830261405</v>
+        <v>75.41843264317565</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.37213823192825</v>
+        <v>42.58833766357751</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>28.3721382272655</v>
+        <v>20.3626558932761</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>28.37213824431514</v>
+        <v>29.68837299528953</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.372138249089</v>
+        <v>41.58553834940658</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>28.37213819608649</v>
+        <v>2.357311670255559</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.37213823729367</v>
+        <v>31.54882277920539</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>28.37213824886528</v>
+        <v>45.24664425627064</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>28.37213820744299</v>
+        <v>13.43106257342343</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.37213824564314</v>
+        <v>31.51251486657431</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>28.37213825788573</v>
+        <v>44.56610912200692</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>28.3721382078797</v>
+        <v>4.477520361349743</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>28.37213824806615</v>
+        <v>28.08450003390123</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>28.37213826124924</v>
+        <v>40.00109381565349</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>28.37213821952185</v>
+        <v>7.860968290908474</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>28.37213826070013</v>
+        <v>46.31513031070981</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>28.37213827292594</v>
+        <v>63.83010328991585</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>28.37213826765751</v>
+        <v>50.66878691094176</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>28.37213828404966</v>
+        <v>60.7109828722909</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>28.37213828828239</v>
+        <v>73.55927966828162</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>28.37213823494518</v>
+        <v>15.37001531625293</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>28.37213827579555</v>
+        <v>53.6487535667364</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>28.37213828749147</v>
+        <v>70.61809772645309</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>28.37213810159489</v>
+        <v>9.259072830999276</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>28.37213813299709</v>
+        <v>14.53940911151305</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.37213814330804</v>
+        <v>20.16022741455853</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>28.37213809979669</v>
+        <v>-5.795048233775564</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>28.37213813366541</v>
+        <v>7.337961645362544</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>28.37213814410548</v>
+        <v>10.28442967468717</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>28.37213810432551</v>
+        <v>-0.7937077665076764</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>28.37213813853154</v>
+        <v>21.21514873841306</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>28.3721381486425</v>
+        <v>25.83383527170766</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>28.37213814987992</v>
+        <v>16.65407472236588</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.37213816331836</v>
+        <v>23.85868211736584</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>28.37213816708511</v>
+        <v>25.71578331881798</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>28.372138124805</v>
+        <v>3.299114233320136</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>28.37213815804977</v>
+        <v>12.95754563478165</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>28.37213816794666</v>
+        <v>20.15447218470985</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>28.3721381575647</v>
+        <v>11.09331874347449</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>28.37213819413431</v>
+        <v>19.8925183040111</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.37213820640657</v>
+        <v>26.93092111743797</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>28.37213815394538</v>
+        <v>-3.648906298124874</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>28.37213819223791</v>
+        <v>4.757682808805352</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>28.37213820533509</v>
+        <v>11.41349005904654</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>28.37213816336492</v>
+        <v>-2.638677115889561</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>28.37213820273344</v>
+        <v>18.32176694847615</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>28.37213811567618</v>
+        <v>9.641099648022223</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>28.37213814879521</v>
+        <v>22.40795337015281</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>28.37213815903246</v>
+        <v>26.15531226777974</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>28.37213811547571</v>
+        <v>-2.86348922993654</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>28.37213815129428</v>
+        <v>20.4375612294354</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>28.37213816172261</v>
+        <v>22.40885946302446</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>28.37213812089868</v>
+        <v>3.39081518170391</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>28.3721381569647</v>
+        <v>35.53904380661443</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>28.37213816700416</v>
+        <v>38.91963160887384</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>28.37213816816996</v>
+        <v>39.59821538714664</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>28.372138181889</v>
+        <v>45.67076605452635</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>28.37213818571234</v>
+        <v>46.57956922317308</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>28.37213814122003</v>
+        <v>10.54602433043822</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>28.37213817630505</v>
+        <v>34.5730943582568</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.37213818598794</v>
+        <v>37.92951672436264</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>28.37213817589591</v>
+        <v>13.16120034695225</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>28.37213821446859</v>
+        <v>31.1518571279751</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.37213822670838</v>
+        <v>37.74089042103367</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>28.37213817416289</v>
+        <v>2.565222364082835</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>28.37213821472685</v>
+        <v>23.25427000276047</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>28.37213822789737</v>
+        <v>30.75509709564607</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>28.37213818468194</v>
+        <v>6.51548493843681</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>28.37213822621599</v>
+        <v>40.22903004141558</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>28.37213811917872</v>
+        <v>4.163074570060839</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>28.37213815222047</v>
+        <v>17.9058774625591</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>28.3721381623658</v>
+        <v>23.16843344359597</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>28.37213811948805</v>
+        <v>-5.397068156618293</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>28.37213815523047</v>
+        <v>18.59625055782843</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>28.372138165589</v>
+        <v>22.35721554806468</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>28.37213812496984</v>
+        <v>0.6472713665977885</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.37213816094814</v>
+        <v>34.0567639641591</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>28.37213817089718</v>
+        <v>39.33501358778653</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>28.37213817194652</v>
+        <v>39.02981663142218</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>28.37213818552569</v>
+        <v>44.11753889715369</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>28.37213818935323</v>
+        <v>46.89311587239106</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>28.37213814490839</v>
+        <v>4.524624011846161</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>28.3721381799893</v>
+        <v>31.53750316334016</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>28.37213818952995</v>
+        <v>36.2220095546617</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>28.37213817933031</v>
+        <v>7.216658794949968</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>28.3721382178114</v>
+        <v>26.19604087510613</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>28.37213822995321</v>
+        <v>34.93757360577786</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>28.37213817815385</v>
+        <v>-1.338311763928505</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>28.37213821863099</v>
+        <v>20.02726196031955</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>28.3721382317386</v>
+        <v>30.1544676508587</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>28.37213818870861</v>
+        <v>2.745993565812864</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>28.37213823014432</v>
+        <v>37.85051850917856</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>28.37213810917675</v>
+        <v>1.354441267922045</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>28.37213814125536</v>
+        <v>13.01758117710814</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>28.37213815164052</v>
+        <v>21.57986427767495</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>28.3721381088396</v>
+        <v>-5.403066632540106</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>28.37213814348119</v>
+        <v>15.38287287540594</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>28.37213815407342</v>
+        <v>22.20343513377608</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>28.37213811368112</v>
+        <v>-1.410077979428937</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>28.37213814862269</v>
+        <v>28.6243670309583</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>28.37213815880923</v>
+        <v>37.25544051621353</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>28.37213815968827</v>
+        <v>28.52838600045179</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>28.37213817314249</v>
+        <v>34.08346151887345</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>28.37213817703381</v>
+        <v>40.37365027721458</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>28.37213813368271</v>
+        <v>0.95921966568255</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>28.37213816789021</v>
+        <v>24.56470040377435</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>28.37213817770707</v>
+        <v>34.29042137336886</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>28.37213816685084</v>
+        <v>4.446321994955632</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>28.37213820421243</v>
+        <v>20.50261866112757</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>28.37213821661646</v>
+        <v>32.06442860529935</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>28.37213816481711</v>
+        <v>-2.261070680631303</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>28.37213820399522</v>
+        <v>14.4535132032283</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.37213821735835</v>
+        <v>27.00060496796507</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>28.37213817463043</v>
+        <v>-1.083444335913452</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>28.37213821486549</v>
+        <v>29.09838527411871</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>28.37213821499935</v>
+        <v>29.09374814161309</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>28.37213821152221</v>
+        <v>17.27443336925192</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>28.37213822834361</v>
+        <v>29.89712253526285</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.37213823286424</v>
+        <v>34.25568328956502</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>28.37213818119159</v>
+        <v>-0.5620785948117692</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>28.37213822107476</v>
+        <v>18.49739125287989</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>28.3721382325922</v>
+        <v>26.58187584672858</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>28.3721381931336</v>
+        <v>13.19129037988028</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>28.3721382300932</v>
+        <v>23.79425225168584</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>28.37213824211638</v>
+        <v>33.63760956598396</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>28.37213819143804</v>
+        <v>-6.080926423979367</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.37213823020781</v>
+        <v>6.11944004646266</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>28.37213824305745</v>
+        <v>14.34818709490476</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>28.37213820251388</v>
+        <v>-3.916402204016908</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>28.37213824230216</v>
+        <v>23.78138482934225</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>28.3721382543431</v>
+        <v>37.73890811916402</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>28.37213825033581</v>
+        <v>26.8645713587137</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>28.37213826646408</v>
+        <v>40.2182756907926</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>28.37213827054243</v>
+        <v>48.14020778364355</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>28.37213821859789</v>
+        <v>-1.181238128485674</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.37213825805392</v>
+        <v>24.00364026112334</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>28.37213826980587</v>
+        <v>36.66120480876313</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>28.37213823846766</v>
+        <v>51.54715584366755</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>28.37213823436463</v>
+        <v>44.52811118500347</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>28.37213825142946</v>
+        <v>54.80373879279442</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>28.37213825601421</v>
+        <v>58.22771796123943</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>28.37213820203025</v>
+        <v>11.90585548473014</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.37213824408521</v>
+        <v>49.12045574330811</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>28.37213825539922</v>
+        <v>54.7107027807357</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>28.37213821297072</v>
+        <v>19.01953575920428</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>28.37213825196907</v>
+        <v>40.65539824801176</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>28.37213826389775</v>
+        <v>47.29785740124306</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>28.37213821321641</v>
+        <v>6.082804166119988</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>28.37213825430211</v>
+        <v>33.56536691429802</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>28.37213826716953</v>
+        <v>39.67508564960298</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>28.3721382254407</v>
+        <v>11.4509869798275</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>28.37213826744201</v>
+        <v>54.12935555232117</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.37213827939338</v>
+        <v>65.04029875114115</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>28.37213827470293</v>
+        <v>66.27534094444412</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>28.37213829108114</v>
+        <v>75.38958836273348</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>28.37213829517759</v>
+        <v>81.51820699879666</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>28.37213824102104</v>
+        <v>20.83797741956324</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>28.37213828261456</v>
+        <v>66.37985570158155</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>28.37213829410869</v>
+        <v>73.31877600003963</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.37213824229994</v>
+        <v>51.78922578497929</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>28.37213823800611</v>
+        <v>40.62559702909477</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>28.37213825487755</v>
+        <v>49.79830353767834</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>28.37213825946417</v>
+        <v>55.92522239183751</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>28.37213820565129</v>
+        <v>4.965419896062365</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>28.37213824768209</v>
+        <v>46.01471527755605</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>28.37213825884129</v>
+        <v>53.37242500291939</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>28.37213821638478</v>
+        <v>12.87348517034867</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>28.37213825532175</v>
+        <v>36.37899844501739</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>28.37213826712969</v>
+        <v>44.61077617449334</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>28.37213821718807</v>
+        <v>2.582301385190281</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>28.37213825822123</v>
+        <v>31.85935335604692</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>28.37213827099837</v>
+        <v>39.99731185701399</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>28.37213822943851</v>
+        <v>8.19863251346543</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>28.37213827137088</v>
+        <v>53.24446807497345</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>28.37213828320111</v>
+        <v>65.97139767757474</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>28.37213827832141</v>
+        <v>65.54831434310711</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>28.37213829452607</v>
+        <v>73.53882147132562</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>28.37213829860739</v>
+        <v>81.87825393029404</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>28.37213824459666</v>
+        <v>15.13173781050286</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>28.37213828619442</v>
+        <v>65.49632905416266</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>28.37213829751482</v>
+        <v>73.89962490813826</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>28.372138227265</v>
+        <v>45.76595259992079</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>28.37213822303813</v>
+        <v>25.07050628345534</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>28.37213823980427</v>
+        <v>35.44062600496473</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.37213824446755</v>
+        <v>45.91595592014238</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>28.37213819182551</v>
+        <v>0.1689590565386574</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.37213823283299</v>
+        <v>36.25730707173528</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>28.37213824427577</v>
+        <v>47.77018311910351</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>28.37213820370839</v>
+        <v>10.40040769361457</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>28.372138241563</v>
+        <v>31.19149535189754</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>28.37213825364517</v>
+        <v>44.23110950502777</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>28.37213820365537</v>
+        <v>1.317826343861348</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>28.37213824342534</v>
+        <v>25.59506048718529</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>28.37213825645796</v>
+        <v>38.31638643032524</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>28.37213821517346</v>
+        <v>4.080992438537379</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>28.37213825593243</v>
+        <v>44.33265179352306</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>28.37213826802732</v>
+        <v>62.08877999378322</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>28.37213826326038</v>
+        <v>50.07213758078883</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>28.37213827936838</v>
+        <v>61.33137693918134</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>28.37213828352873</v>
+        <v>74.55132188031399</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>28.37213823051033</v>
+        <v>7.956691429365751</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>28.37213827115287</v>
+        <v>53.30337725812926</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>28.37213828278631</v>
+        <v>68.91914468215622</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>28.37213809585155</v>
+        <v>11.0682096942453</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>28.37213813121404</v>
+        <v>18.94931569649578</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>28.37213814279456</v>
+        <v>25.10143515921123</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>28.37213809426391</v>
+        <v>-1.924136386260979</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>28.37213813246428</v>
+        <v>16.14550556869375</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.37213814416343</v>
+        <v>19.2005243913129</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>28.37213809957202</v>
+        <v>3.024728779420709</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>28.37213813811749</v>
+        <v>31.20928042663556</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>28.372138149462</v>
+        <v>35.58027024170431</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>28.37213815011877</v>
+        <v>23.64784707504742</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>28.37213816524743</v>
+        <v>31.38557064831999</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>28.37213816947032</v>
+        <v>32.21758422052383</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>28.37213812186955</v>
+        <v>6.966270353939382</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>28.37213815916282</v>
+        <v>17.03942969896129</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>28.37213817024527</v>
+        <v>25.76192391654906</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>28.37213816033172</v>
+        <v>11.64174496483941</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>28.37213820152015</v>
+        <v>23.01424784157874</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>28.3721382152286</v>
+        <v>27.87879370348768</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>28.37213815669962</v>
+        <v>-2.986047240989013</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>28.37213819988096</v>
+        <v>9.373799047603921</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>28.37213821448995</v>
+        <v>13.5887037501706</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>28.37213816756198</v>
+        <v>-2.889591946138861</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>28.37213821192582</v>
+        <v>24.00080446429725</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>28.37213811196838</v>
+        <v>13.19704826739139</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>28.37213814925794</v>
+        <v>29.72248368382835</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>28.37213816074769</v>
+        <v>33.57120399587279</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>28.37213811216468</v>
+        <v>3.047451836197066</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>28.37213815255824</v>
+        <v>32.8320912245577</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>28.37213816423493</v>
+        <v>34.58776872613775</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>28.37213811848375</v>
+        <v>9.552582975035854</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>28.37213815911715</v>
+        <v>49.40804805556284</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>28.37213817037346</v>
+        <v>52.1810067816275</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>28.37213817094514</v>
+        <v>51.45274812689487</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>28.37213818638027</v>
+        <v>57.8091846463214</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>28.37213819066274</v>
+        <v>57.49806941285587</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.37213814057844</v>
+        <v>16.88764480225613</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>28.37213817993072</v>
+        <v>43.11900069796054</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>28.37213819076126</v>
+        <v>47.38691913859309</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>28.37213818116395</v>
+        <v>14.16147333694534</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>28.37213822459363</v>
+        <v>35.98499580427228</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>28.37213823825423</v>
+        <v>39.99968077587012</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>28.37213817963822</v>
+        <v>4.077997411609712</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.37213822536759</v>
+        <v>30.40924985674448</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>28.37213824004436</v>
+        <v>35.21108038358332</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.37213819173736</v>
+        <v>7.538249224599571</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>28.37213823852522</v>
+        <v>48.92920744215834</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>28.37213811586179</v>
+        <v>7.627223013860526</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>28.37213815306623</v>
+        <v>25.4315316954326</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>28.37213816445091</v>
+        <v>30.90049449394198</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>28.37213811663039</v>
+        <v>0.8912142608411315</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>28.37213815693974</v>
+        <v>31.62651296416242</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>28.37213816853672</v>
+        <v>35.31864543603391</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>28.37213812301173</v>
+        <v>7.198203711646304</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>28.37213816354756</v>
+        <v>48.66025886438862</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>28.37213817470069</v>
+        <v>53.47813692583813</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>28.37213817515289</v>
+        <v>51.718657933795</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>28.3721381904299</v>
+        <v>56.96747873688687</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>28.37213819471614</v>
+        <v>58.7307315866955</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>28.37213814468272</v>
+        <v>10.83155524813966</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>28.37213818403184</v>
+        <v>40.58204762178697</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>28.37213819470275</v>
+        <v>46.31394710280114</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>28.37213818494758</v>
+        <v>7.957314349133537</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>28.37213822827567</v>
+        <v>31.09208014465621</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>28.37213824182391</v>
+        <v>37.40083501087357</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.37213818404553</v>
+        <v>0.2708261633374853</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.3721382296786</v>
+        <v>27.56407837152904</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>28.37213824428246</v>
+        <v>35.19059695617908</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>28.37213819617827</v>
+        <v>3.925858674936574</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>28.37213824285617</v>
+        <v>47.09067994517821</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>28.37213810446918</v>
+        <v>3.872094758086668</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>28.37213814059598</v>
+        <v>19.4142965238222</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>28.37213815225451</v>
+        <v>28.65957209665234</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>28.37213810453164</v>
+        <v>0.3331625173301553</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>28.37213814360508</v>
+        <v>27.47354192390042</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>28.37213815547142</v>
+        <v>34.7164759587103</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>28.37213811018921</v>
+        <v>4.249689134638164</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>28.37213814956443</v>
+        <v>41.9841916381735</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>28.37213816098898</v>
+        <v>50.61951219510675</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>28.37213816125966</v>
+        <v>39.38792034765395</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>28.37213817640075</v>
+        <v>45.19072536736017</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>28.37213818076194</v>
+        <v>50.97416984281701</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>28.37213813194682</v>
+        <v>6.107068093922614</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>28.37213817031939</v>
+        <v>32.24960424742558</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>28.37213818131357</v>
+        <v>43.75905206610988</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>28.37213817080551</v>
+        <v>5.008079831772886</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>28.37213821288687</v>
+        <v>25.06822728157551</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>28.37213822673465</v>
+        <v>34.64060118999465</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>28.37213816895757</v>
+        <v>-0.4940257832190582</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>28.3721382131378</v>
+        <v>21.75771308198647</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>28.37213822803717</v>
+        <v>32.22766658171687</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>28.3721381802538</v>
+        <v>-0.1418678063441483</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>28.37213822559282</v>
+        <v>37.70056004868569</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>28.37213822561849</v>
+        <v>32.2803065827993</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>28.37213822101781</v>
+        <v>21.7203706294992</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>28.3721382399853</v>
+        <v>34.55834116229625</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>28.37213824504045</v>
+        <v>37.48057831765246</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>28.37213818682046</v>
+        <v>1.780468110225303</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>28.37213823160652</v>
+        <v>22.59165878964624</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>28.37213824443593</v>
+        <v>28.71592551171143</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.37213819891442</v>
+        <v>10.90581667109895</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>28.37213824047251</v>
+        <v>23.50942676039673</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>28.37213825394108</v>
+        <v>33.03985426904722</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>28.37213819736205</v>
+        <v>-7.998516473612721</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>28.37213824101171</v>
+        <v>7.699490826645093</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>28.37213825538521</v>
+        <v>14.87994774751347</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>28.3721382099751</v>
+        <v>-7.457116845324702</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>28.37213825473729</v>
+        <v>25.94095903241615</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>28.37213826821921</v>
+        <v>39.49123712621909</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.37213826302014</v>
+        <v>29.0736896292006</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>28.37213828122336</v>
+        <v>43.06952074394215</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>28.37213828580111</v>
+        <v>50.46886227967053</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>28.37213822734916</v>
+        <v>-2.488153524429315</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>28.3721382716129</v>
+        <v>24.91053980176086</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.3721382847368</v>
+        <v>37.16328776224438</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>28.37213825219027</v>
+        <v>57.45936831286215</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>28.37213824688468</v>
+        <v>52.70505827148494</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>28.37213826611402</v>
+        <v>62.64325319126976</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>28.37213827123535</v>
+        <v>64.40435207717982</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>28.37213821044068</v>
+        <v>16.05349759212833</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>28.37213825764695</v>
+        <v>57.12819834522872</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>28.37213827023296</v>
+        <v>60.1452770258246</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>28.37213822136017</v>
+        <v>16.85626974896463</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>28.37213826519663</v>
+        <v>41.96256376367924</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>28.37213827855241</v>
+        <v>47.68281458309886</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>28.3721382219713</v>
+        <v>4.935891824860494</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>28.37213826821602</v>
+        <v>37.92078731916041</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>28.37213828260044</v>
+        <v>42.49728389520866</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>28.37213823586902</v>
+        <v>9.031914251020453</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>28.37213828310527</v>
+        <v>59.41376841579721</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>28.37213829648018</v>
+        <v>69.31788911230309</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>28.37213829050451</v>
+        <v>72.74646865936121</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>28.3721383089807</v>
+        <v>81.73578122897405</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>28.37213831357386</v>
+        <v>87.0007752450128</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>28.37213825265913</v>
+        <v>21.57736785441639</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>28.37213829930397</v>
+        <v>71.80459738167512</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>28.37213831212825</v>
+        <v>77.40638589146725</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>28.37213825641119</v>
+        <v>58.43153120517074</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>28.37213825090176</v>
+        <v>49.11022074878399</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>28.37213826991112</v>
+        <v>57.78456956763248</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>28.37213827503331</v>
+        <v>62.53525113515428</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>28.37213821443421</v>
+        <v>8.851052168996926</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.37213826161284</v>
+        <v>54.39034992449361</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>28.37213827402429</v>
+        <v>59.31174543537389</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>28.37213822511819</v>
+        <v>10.40229789085799</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>28.37213826888571</v>
+        <v>37.77009471028656</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>28.37213828210453</v>
+        <v>45.17573295290501</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>28.37213822635465</v>
+        <v>1.531959659344466</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>28.37213827254023</v>
+        <v>36.69067328437262</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>28.37213828682225</v>
+        <v>43.44763230462294</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>28.37213824027477</v>
+        <v>5.955954803716629</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>28.37213828743269</v>
+        <v>59.16702159655034</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>28.37213830067048</v>
+        <v>71.00520331237102</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>28.37213829449236</v>
+        <v>72.64815358236338</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>28.37213831277105</v>
+        <v>80.32872610947256</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>28.37213831734604</v>
+        <v>88.02963341198641</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>28.37213825659992</v>
+        <v>15.72289151880569</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>28.37213830324684</v>
+        <v>71.49683371040091</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>28.37213831587633</v>
+        <v>78.671215761642</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>28.37213823942739</v>
+        <v>52.18251196479846</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>28.37213823399998</v>
+        <v>31.97386721299991</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>28.372138252896</v>
+        <v>42.13515551468152</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>28.3721382581086</v>
+        <v>51.82235566166341</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>28.37213819880632</v>
+        <v>3.535803024928473</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.37213824484857</v>
+        <v>43.89314863826348</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>28.37213825759162</v>
+        <v>53.58404851793892</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.37213821078464</v>
+        <v>8.652209850062626</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>28.37213825334624</v>
+        <v>33.1050230550826</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.37213826687642</v>
+        <v>45.95024802537837</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>28.37213821107992</v>
+        <v>1.238921500045734</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>28.37213825585213</v>
+        <v>30.92106023727108</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>28.37213827042753</v>
+        <v>42.89285463024425</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>28.37213822417619</v>
+        <v>2.515494402110694</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>28.37213827002503</v>
+        <v>50.47060195189672</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>28.3721382835638</v>
+        <v>67.97882567557994</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>28.37213827752424</v>
+        <v>56.54016544680099</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>28.37213829569711</v>
+        <v>67.99416367098065</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>28.37213830036436</v>
+        <v>81.2486850225111</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>28.3721382407187</v>
+        <v>8.70287882903996</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>28.37213828630224</v>
+        <v>59.06854679771122</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>28.37213829929369</v>
+        <v>74.40419181062387</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>28.37213810383211</v>
+        <v>15.64555916537395</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>28.37213813686905</v>
+        <v>19.53252395962821</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>28.37213814792787</v>
+        <v>25.43301073191797</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>28.3721381028577</v>
+        <v>5.572556491428358</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>28.37213813856012</v>
+        <v>20.92227231364024</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>28.37213814971002</v>
+        <v>23.91745511636849</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>28.37213810778718</v>
+        <v>9.865357490737946</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>28.37213814385652</v>
+        <v>32.88378440938428</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>28.37213815467251</v>
+        <v>37.0170177133455</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>28.37213815518638</v>
+        <v>24.20141835377694</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>28.37213816947622</v>
+        <v>30.53124875235445</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>28.37213817354185</v>
+        <v>32.50554129251212</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>28.37213812914313</v>
+        <v>17.0004329050259</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>28.37213816381848</v>
+        <v>19.10204745602493</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>28.37213817434979</v>
+        <v>30.02623128473</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>28.37213816494413</v>
+        <v>13.99284613178136</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>28.37213820341534</v>
+        <v>21.45806697117144</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>28.37213821651229</v>
+        <v>26.98811746502761</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>28.37213816212478</v>
+        <v>3.03271421417713</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>28.37213820244911</v>
+        <v>12.42428622517991</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>28.37213821638495</v>
+        <v>17.24711367518511</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>28.37213817213325</v>
+        <v>0.3839243319246037</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>28.37213821362347</v>
+        <v>22.1456874933299</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>28.37213811937996</v>
+        <v>17.42783832923168</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>28.37213815421254</v>
+        <v>29.26623219694609</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>28.37213816520347</v>
+        <v>33.27587536631089</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>28.37213812008877</v>
+        <v>9.556977615615711</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>28.37213815782986</v>
+        <v>35.73234068664885</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>28.37213816897906</v>
+        <v>37.8874294842825</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>28.37213812601268</v>
+        <v>15.38520340184735</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>28.37213816403043</v>
+        <v>49.21755037132684</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>28.37213817478177</v>
+        <v>52.163360285976</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>28.37213817525007</v>
+        <v>50.03186867230902</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>28.37213818982489</v>
+        <v>55.26378981285649</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>28.37213819394856</v>
+        <v>56.28638642244755</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>28.37213814719893</v>
+        <v>26.65925124032999</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.37213818378707</v>
+        <v>43.53495989427618</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>28.37213819409356</v>
+        <v>50.50169218629841</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>28.37213818495646</v>
+        <v>16.48429062106402</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>28.37213822551461</v>
+        <v>33.58514334557731</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>28.3721382385908</v>
+        <v>38.63826637675148</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.37213818412523</v>
+        <v>9.691906852199121</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.37213822681632</v>
+        <v>32.01453064586866</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>28.37213824084479</v>
+        <v>37.81776991126883</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>28.37213819534181</v>
+        <v>10.3247077524604</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>28.37213823909236</v>
+        <v>45.54632976958433</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>28.37213812308445</v>
+        <v>12.00356165211044</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>28.37213815784157</v>
+        <v>25.20257802328863</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>28.37213816873524</v>
+        <v>30.7339379675029</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>28.37213812432521</v>
+        <v>7.259148839287224</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>28.3721381619905</v>
+        <v>34.45536698249693</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>28.37213817306659</v>
+        <v>38.45817633871969</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>28.37213813031581</v>
+        <v>12.90024702806961</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>28.37213816824585</v>
+        <v>48.42114334991331</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>28.37213817890257</v>
+        <v>53.29952189873566</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>28.37213817925656</v>
+        <v>50.11568605873128</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>28.3721381936838</v>
+        <v>54.32885022511793</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>28.37213819781141</v>
+        <v>57.32946977998195</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>28.37213815109481</v>
+        <v>20.7277956920315</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>28.37213818768729</v>
+        <v>41.05233053381815</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>28.37213819784642</v>
+        <v>49.45092903652298</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>28.37213818855031</v>
+        <v>10.60678570966543</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>28.37213822901688</v>
+        <v>29.05943725853314</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.37213824198988</v>
+        <v>36.29804867300121</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>28.37213818829907</v>
+        <v>6.037785236606485</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>28.37213823090262</v>
+        <v>29.35391428578198</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>28.37213824486492</v>
+        <v>37.88287698184397</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>28.37213819955738</v>
+        <v>6.864696549191958</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>28.37213824320822</v>
+        <v>43.90034176587604</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>28.37213811208607</v>
+        <v>7.893011490855475</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>28.37213814584635</v>
+        <v>19.32928356799784</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>28.37213815698771</v>
+        <v>28.13046423920282</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>28.37213811266292</v>
+        <v>6.558395436239461</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>28.37213814918806</v>
+        <v>30.71437278117882</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>28.37213816050422</v>
+        <v>37.71042083978588</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>28.37213811794189</v>
+        <v>9.877229692646539</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>28.37213815479532</v>
+        <v>42.27807129597771</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>28.37213816569883</v>
+        <v>50.44209455194596</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>28.37213816584142</v>
+        <v>38.31542598303478</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>28.37213818014853</v>
+        <v>42.77036940442144</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>28.37213818435421</v>
+        <v>49.43959546347226</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>28.37213813877726</v>
+        <v>15.26139575473269</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>28.37213817447312</v>
+        <v>32.70896169942016</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>28.37213818493664</v>
+        <v>46.43433039698256</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>28.37213817495241</v>
+        <v>7.911696939492227</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>28.3721382142668</v>
+        <v>23.85143397169709</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>28.37213822750811</v>
+        <v>33.90070870222666</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>28.37213817381128</v>
+        <v>5.673672089022336</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>28.37213821507591</v>
+        <v>24.59193113744153</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>28.372138229297</v>
+        <v>35.52549505284147</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>28.37213818424972</v>
+        <v>3.320725443732403</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>28.37213822666006</v>
+        <v>35.75775591695474</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>28.3721382266793</v>
+        <v>31.13963840109676</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>28.37213822218593</v>
+        <v>18.20071304012945</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>28.37213824011597</v>
+        <v>30.22295293074524</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>28.37213824498656</v>
+        <v>34.91701385848813</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>28.37213819053091</v>
+        <v>6.585601863601067</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>28.37213823229041</v>
+        <v>19.68446520095664</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>28.37213824442291</v>
+        <v>28.03954994737829</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>28.37213820150859</v>
+        <v>15.45199310373357</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>28.37213824038272</v>
+        <v>24.29838997308171</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>28.37213825316655</v>
+        <v>33.04457027070094</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>28.37213820060337</v>
+        <v>1.191645555112189</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>28.37213824142053</v>
+        <v>14.03209124733073</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>28.37213825505761</v>
+        <v>20.3444679371726</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>28.37213821226812</v>
+        <v>-0.08744654235053773</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>28.37213825419445</v>
+        <v>28.2292022603778</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>28.37213826695937</v>
+        <v>41.01808351120928</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>28.37213826183558</v>
+        <v>29.26130008835769</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>28.37213827904406</v>
+        <v>41.9607413540537</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>28.37213828343037</v>
+        <v>49.08536341126489</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.37213822881593</v>
+        <v>7.083006682567145</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.37213827008374</v>
+        <v>25.60569466824188</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>28.37213828242611</v>
+        <v>38.72898946797751</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>28.37213825214822</v>
+        <v>55.16255510801678</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>28.3721382470053</v>
+        <v>47.44888622166957</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>28.37213826517753</v>
+        <v>57.01840537182446</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>28.37213827011318</v>
+        <v>60.74692761844148</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>28.37213821323881</v>
+        <v>20.99112325316306</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>28.37213825724553</v>
+        <v>52.71900616914618</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.37213826916914</v>
+        <v>58.37721569898865</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>28.37213822304677</v>
+        <v>21.48853664605693</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>28.37213826404212</v>
+        <v>41.82829019815642</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>28.37213827674383</v>
+        <v>47.35871450677791</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>28.37213822417576</v>
+        <v>13.45879269424962</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>28.37213826740384</v>
+        <v>42.25168885674307</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>28.37213828107955</v>
+        <v>46.57933541850716</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>28.37213823708991</v>
+        <v>15.67670741320723</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>28.37213828132261</v>
+        <v>59.72519672695762</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>28.37213829401269</v>
+        <v>69.49657885061727</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>28.37213828816925</v>
+        <v>70.64122274881353</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>28.37213830562836</v>
+        <v>78.79199911673057</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>28.37213831003192</v>
+        <v>84.05167851226672</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>28.37213825310958</v>
+        <v>30.81210069097898</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>28.37213829658208</v>
+        <v>70.18856627809865</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.37213830866414</v>
+        <v>77.45557438866422</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>28.37213825616406</v>
+        <v>56.20430783546698</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>28.37213825082457</v>
+        <v>44.06084779230841</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.37213826879047</v>
+        <v>52.44325709149179</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>28.37213827372786</v>
+        <v>59.02178630456881</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>28.37213821702812</v>
+        <v>14.20325866687282</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>28.37213826101429</v>
+        <v>50.24102146739988</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>28.37213827277861</v>
+        <v>57.74468111554694</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>28.37213822661747</v>
+        <v>15.64605781608556</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>28.37213826755143</v>
+        <v>38.25731128225283</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>28.3721382801275</v>
+        <v>45.38851429374793</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.37213822832878</v>
+        <v>10.46830085740859</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>28.37213827150384</v>
+        <v>41.41838811076114</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>28.37213828508638</v>
+        <v>47.83620700401569</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>28.37213824127291</v>
+        <v>12.99566132326829</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>28.37213828543487</v>
+        <v>59.88182745597247</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>28.37213829800016</v>
+        <v>71.49669613672042</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>28.37213829196335</v>
+        <v>70.83803320667357</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.37213830923692</v>
+        <v>77.74217929016086</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>28.37213831362403</v>
+        <v>85.33368924919417</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>28.37213825685046</v>
+        <v>25.52615492428091</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>28.37213830032882</v>
+        <v>70.23587735045554</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>28.3721383122339</v>
+        <v>79.04194463312081</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>28.37213823986585</v>
+        <v>50.72572656068088</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>28.37213823457332</v>
+        <v>28.52694320023677</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>28.37213825243847</v>
+        <v>37.88936820542444</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.37213825746917</v>
+        <v>49.05533911383775</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>28.3721382019754</v>
+        <v>8.725001449220048</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>28.37213824491963</v>
+        <v>40.47368498059532</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.37213825699105</v>
+        <v>52.38568435686847</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>28.37213821284817</v>
+        <v>14.00722138689398</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.37213825266983</v>
+        <v>34.36793500684549</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>28.37213826552411</v>
+        <v>46.27661816390251</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>28.37213821368174</v>
+        <v>10.63287400052258</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.37213825555606</v>
+        <v>36.91791107485753</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>28.37213826939468</v>
+        <v>47.86159262627518</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>28.37213822582085</v>
+        <v>10.07774586317666</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>28.37213826877229</v>
+        <v>52.54154097802301</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>28.37213828160596</v>
+        <v>69.13201012163677</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.37213827567219</v>
+        <v>56.28295674752221</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>28.37213829285535</v>
+        <v>66.45701166405455</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>28.37213829733425</v>
+        <v>79.1534942728523</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>28.37213824157685</v>
+        <v>18.47542607434445</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>28.37213828408429</v>
+        <v>58.86876013768509</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>28.37213829632415</v>
+        <v>75.05856098163997</v>
       </c>
     </row>
   </sheetData>
